--- a/Sensor.xlsx
+++ b/Sensor.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SNEHA\NTU Y3 SEM 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Limzui\Documents\GitHub\CE3004-MDP-ARDUINO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A81D9F8E-54F3-4312-A9E7-C17F59B4E957}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{925459B3-3023-40D0-B632-05AE2B121463}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6602DABA-150B-41F0-8105-E6E9BFF209EE}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" firstSheet="1" activeTab="1" xr2:uid="{6602DABA-150B-41F0-8105-E6E9BFF209EE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Block Detection (Short)" sheetId="4" r:id="rId1"/>
-    <sheet name="Block Detection (Long)" sheetId="5" r:id="rId2"/>
-    <sheet name="Calibration" sheetId="6" r:id="rId3"/>
+    <sheet name="Calibration" sheetId="6" r:id="rId1"/>
+    <sheet name="Block Detection (Short)" sheetId="4" r:id="rId2"/>
+    <sheet name="IR6" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,9 +25,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -422,19 +420,728 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DE365FD-844F-40B5-B0D1-185FCF6C986C}">
+  <dimension ref="A1:N40"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="6" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>625</v>
+      </c>
+      <c r="C3" s="1">
+        <v>634</v>
+      </c>
+      <c r="D3" s="1">
+        <v>630</v>
+      </c>
+      <c r="E3" s="1">
+        <v>534</v>
+      </c>
+      <c r="F3" s="1">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1">
+        <v>624</v>
+      </c>
+      <c r="C4" s="1">
+        <v>630</v>
+      </c>
+      <c r="D4" s="1">
+        <v>611</v>
+      </c>
+      <c r="E4" s="1">
+        <v>491</v>
+      </c>
+      <c r="F4" s="1">
+        <v>458</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
+        <v>589</v>
+      </c>
+      <c r="C5" s="1">
+        <v>585</v>
+      </c>
+      <c r="D5" s="1">
+        <v>558</v>
+      </c>
+      <c r="E5" s="1">
+        <v>445</v>
+      </c>
+      <c r="F5" s="1">
+        <v>421</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1">
+        <v>538</v>
+      </c>
+      <c r="C6" s="1">
+        <v>537</v>
+      </c>
+      <c r="D6" s="1">
+        <v>513</v>
+      </c>
+      <c r="E6" s="1">
+        <v>416</v>
+      </c>
+      <c r="F6" s="1">
+        <v>389</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1">
+        <v>500</v>
+      </c>
+      <c r="C7" s="1">
+        <v>487</v>
+      </c>
+      <c r="D7" s="1">
+        <v>471</v>
+      </c>
+      <c r="E7" s="1">
+        <v>383</v>
+      </c>
+      <c r="F7" s="1">
+        <v>363</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J11" t="s">
+        <v>2</v>
+      </c>
+      <c r="M11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>100</v>
+      </c>
+      <c r="C12">
+        <v>100</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>30</v>
+      </c>
+      <c r="J12" t="s">
+        <v>3</v>
+      </c>
+      <c r="K12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" t="s">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <f t="shared" ref="B14:F19" si="0">1/($A3+B$12)</f>
+        <v>9.7087378640776691E-3</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>9.7087378640776691E-3</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>3.0303030303030304E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>9.6153846153846159E-3</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>9.6153846153846159E-3</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>2.9411764705882353E-2</v>
+      </c>
+      <c r="I15">
+        <v>4</v>
+      </c>
+      <c r="J15">
+        <f t="shared" ref="J15:N19" si="1">B36</f>
+        <v>4.0669607179618623</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>4.1888664339518584</v>
+      </c>
+      <c r="L15">
+        <f>D36</f>
+        <v>4.068965517241379</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="1"/>
+        <v>3.904684074808257</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="1"/>
+        <v>4.0334435611168118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>9.5238095238095247E-3</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>9.5238095238095247E-3</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="I16">
+        <v>5</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>4.8743439007414651</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>5.0574286772878878</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="1"/>
+        <v>5.0513833992094863</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="1"/>
+        <v>5.0350455253827082</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="1"/>
+        <v>5.0892853708836654</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>9.433962264150943E-3</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>9.433962264150943E-3</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="I17">
+        <v>6</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>6.0735003855135545</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="1"/>
+        <v>5.9079836618351429</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="1"/>
+        <v>6.0567332861779732</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>9.3457943925233638E-3</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>9.3457943925233638E-3</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>2.7027027027027029E-2</v>
+      </c>
+      <c r="I18">
+        <v>7</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>6.9849712658453029</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="1"/>
+        <v>7.1063612888585936</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="1"/>
+        <v>6.8829657881330348</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>9.2592592592592587E-3</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>9.2592592592592587E-3</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>2.6315789473684209E-2</v>
+      </c>
+      <c r="I19">
+        <v>8</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="1"/>
+        <v>20.623029382438162</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>17.826719301890762</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="1"/>
+        <v>46.83582089552241</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="1"/>
+        <v>-49.011919528143736</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="1"/>
+        <v>24.233732431943068</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <f>INTERCEPT(B15:B19,B4:B8)</f>
+        <v>8.2902908766242008E-3</v>
+      </c>
+      <c r="C25">
+        <f>INTERCEPT(C17:C19,C6:C8)</f>
+        <v>8.4870393228707423E-3</v>
+      </c>
+      <c r="D25">
+        <f>INTERCEPT(D17:D19,D6:D8)</f>
+        <v>1.7594537815126043E-2</v>
+      </c>
+      <c r="E25">
+        <f>INTERCEPT(E14:E18,E3:E7)</f>
+        <v>-2.272111761361699E-2</v>
+      </c>
+      <c r="F25">
+        <f>INTERCEPT(F14:F18,F3:F7)</f>
+        <v>1.8438708810146563E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26">
+        <f>SLOPE(B15:B19,B4:B8)</f>
+        <v>2.1136327362823823E-6</v>
+      </c>
+      <c r="C26">
+        <f>SLOPE(C17:C19,C6:C8)</f>
+        <v>1.763357432551585E-6</v>
+      </c>
+      <c r="D26">
+        <f>SLOPE(D17:D19,D6:D8)</f>
+        <v>8.7535014005602255E-5</v>
+      </c>
+      <c r="E26">
+        <f>SLOPE(E14:E18,E3:E7)</f>
+        <v>2.7499300283015442E-4</v>
+      </c>
+      <c r="F26">
+        <f>SLOPE(F14:F18,F3:F7)</f>
+        <v>2.3895532551367711E-5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B27" s="2">
+        <v>2.11923E-6</v>
+      </c>
+      <c r="C27">
+        <v>1.763357432551585E-6</v>
+      </c>
+      <c r="D27">
+        <v>8.7535014005602296E-5</v>
+      </c>
+      <c r="F27">
+        <v>2.3895532551367711E-5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" t="s">
+        <v>2</v>
+      </c>
+      <c r="F33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <f>A4</f>
+        <v>4</v>
+      </c>
+      <c r="B36">
+        <f t="shared" ref="B36:F40" si="2">(1/B$26)/(B4+(B$25/B$26))-B$12</f>
+        <v>4.0669607179618623</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="2"/>
+        <v>4.1888664339518584</v>
+      </c>
+      <c r="D36">
+        <f>(1/D$26)/(D4+(D$25/D$26))-D$12</f>
+        <v>4.068965517241379</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="2"/>
+        <v>3.904684074808257</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="2"/>
+        <v>4.0334435611168118</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <f>A5</f>
+        <v>5</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="2"/>
+        <v>4.8743439007414651</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="2"/>
+        <v>5.0574286772878878</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="2"/>
+        <v>5.0513833992094863</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="2"/>
+        <v>5.0350455253827082</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="2"/>
+        <v>5.0892853708836654</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <f>A6</f>
+        <v>6</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="2"/>
+        <v>6.0735003855135545</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="2"/>
+        <v>5.9079836618351429</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="2"/>
+        <v>6.0567332861779732</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <f>A7</f>
+        <v>7</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="2"/>
+        <v>6.9849712658453029</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="2"/>
+        <v>7.1063612888585936</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="2"/>
+        <v>6.8829657881330348</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <f>A8</f>
+        <v>8</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="2"/>
+        <v>20.623029382438162</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="2"/>
+        <v>17.826719301890762</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="2"/>
+        <v>46.83582089552241</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="2"/>
+        <v>-49.011919528143736</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="2"/>
+        <v>24.233732431943068</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBC94E3C-D284-4D19-92AB-A16814BB168E}">
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28:F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -442,7 +1149,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -462,7 +1169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>5</v>
       </c>
@@ -470,10 +1177,10 @@
         <v>589</v>
       </c>
       <c r="C3" s="1">
-        <v>608</v>
+        <v>585</v>
       </c>
       <c r="D3" s="1">
-        <v>573</v>
+        <v>558</v>
       </c>
       <c r="E3" s="1">
         <v>445</v>
@@ -482,7 +1189,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>10</v>
       </c>
@@ -490,10 +1197,10 @@
         <v>401</v>
       </c>
       <c r="C4" s="1">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="D4" s="1">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="E4" s="1">
         <v>317</v>
@@ -502,7 +1209,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>15</v>
       </c>
@@ -510,10 +1217,10 @@
         <v>307</v>
       </c>
       <c r="C5" s="1">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="D5" s="1">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E5" s="1">
         <v>246</v>
@@ -522,7 +1229,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>20</v>
       </c>
@@ -530,10 +1237,10 @@
         <v>242</v>
       </c>
       <c r="C6" s="1">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="D6" s="1">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E6" s="1">
         <v>200</v>
@@ -542,7 +1249,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>25</v>
       </c>
@@ -550,10 +1257,10 @@
         <v>206</v>
       </c>
       <c r="C7" s="1">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="D7" s="1">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E7" s="1">
         <v>173</v>
@@ -562,7 +1269,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>30</v>
       </c>
@@ -570,10 +1277,10 @@
         <v>180</v>
       </c>
       <c r="C8" s="1">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D8" s="1">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E8" s="1">
         <v>150</v>
@@ -582,7 +1289,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>35</v>
       </c>
@@ -590,10 +1297,10 @@
         <v>159</v>
       </c>
       <c r="C9" s="1">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="D9" s="1">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="E9" s="1">
         <v>134</v>
@@ -602,7 +1309,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>5</v>
       </c>
@@ -610,7 +1317,7 @@
         <v>4.5</v>
       </c>
       <c r="D13">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="E13">
         <v>6</v>
@@ -625,7 +1332,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B14">
         <f>1/($A3+B$13)</f>
         <v>0.1</v>
@@ -636,7 +1343,7 @@
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.11764705882352941</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
@@ -662,7 +1369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B15">
         <f>1/($A4+B$13)</f>
         <v>6.6666666666666666E-2</v>
@@ -673,7 +1380,7 @@
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>6.6666666666666666E-2</v>
+        <v>7.407407407407407E-2</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
@@ -707,7 +1414,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B16">
         <f>1/($A5+B$13)</f>
         <v>0.05</v>
@@ -718,7 +1425,7 @@
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>5.4054054054054057E-2</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
@@ -752,7 +1459,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B17">
         <f t="shared" si="0"/>
         <v>0.04</v>
@@ -763,7 +1470,7 @@
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>0.04</v>
+        <v>4.2553191489361701E-2</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
@@ -797,7 +1504,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B18">
         <f t="shared" si="0"/>
         <v>3.3333333333333333E-2</v>
@@ -808,7 +1515,7 @@
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
+        <v>3.5087719298245612E-2</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
@@ -842,7 +1549,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B19">
         <f t="shared" si="0"/>
         <v>2.8571428571428571E-2</v>
@@ -853,7 +1560,7 @@
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
-        <v>2.8571428571428571E-2</v>
+        <v>2.9850746268656716E-2</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
@@ -887,7 +1594,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B20">
         <f t="shared" si="0"/>
         <v>2.5000000000000001E-2</v>
@@ -898,7 +1605,7 @@
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
-        <v>2.5000000000000001E-2</v>
+        <v>2.5974025974025976E-2</v>
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
@@ -921,18 +1628,18 @@
       </c>
       <c r="N20">
         <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="O20">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
       <c r="P20">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="J21">
         <v>35</v>
       </c>
@@ -942,33 +1649,33 @@
       </c>
       <c r="M21">
         <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="N21">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="O21">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
       <c r="P21">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="L23">
         <f>ABS(L15-$J15)+ABS(L16-$J16)+ABS(L17-$J17)+ABS(L18-$J18)+ABS(L19-$J19)+ABS(L20-$J20)+ABS(L21-$J21)</f>
         <v>0</v>
       </c>
       <c r="M23">
         <f>ABS(M15-$J15)+ABS(M16-$J16)+ABS(M17-$J17)+ABS(M18-$J18)+ABS(M19-$J19)+ABS(M20-$J20)+ABS(M21-$J21)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23">
         <f>ABS(N15-$J15)+ABS(N16-$J16)+ABS(N17-$J17)+ABS(N18-$J18)+ABS(N19-$J19)+ABS(N20-$J20)+ABS(N21-$J21)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O23">
         <f>ABS(O15-$J15)+ABS(O16-$J16)+ABS(O17-$J17)+ABS(O18-$J18)+ABS(O19-$J19)+ABS(O20-$J20)+ABS(O21-$J21)</f>
@@ -979,7 +1686,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>2</v>
       </c>
@@ -987,7 +1694,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>3</v>
       </c>
@@ -1004,7 +1711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -1014,11 +1721,11 @@
       </c>
       <c r="C26">
         <f>INTERCEPT(C14:C20,C3:C9)</f>
-        <v>3.8060613230261123E-3</v>
+        <v>4.2978884569465636E-3</v>
       </c>
       <c r="D26">
         <f>INTERCEPT(D14:D20,D3:D9)</f>
-        <v>-3.2641652454046197E-3</v>
+        <v>-1.3088308734627442E-2</v>
       </c>
       <c r="E26">
         <f>INTERCEPT(E14:E20,E3:E9)</f>
@@ -1029,7 +1736,7 @@
         <v>-1.1657263419977013E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -1039,11 +1746,11 @@
       </c>
       <c r="C27">
         <f>SLOPE(C14:C20,C3:C9)</f>
-        <v>1.6635458737438967E-4</v>
+        <v>1.7166248771295178E-4</v>
       </c>
       <c r="D27">
         <f>SLOPE(D14:D20,D3:D9)</f>
-        <v>1.8068076197695309E-4</v>
+        <v>2.3332954961562916E-4</v>
       </c>
       <c r="E27">
         <f>SLOPE(E14:E20,E3:E9)</f>
@@ -1054,23 +1761,12 @@
         <v>2.6490484268614807E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B28">
-        <v>1.7374503606403907E-4</v>
-      </c>
-      <c r="C28">
-        <v>8.5035459264315547E-4</v>
-      </c>
-      <c r="F28">
-        <v>2.6490484268614807E-4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>2</v>
       </c>
@@ -1078,7 +1774,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -1098,7 +1794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <f t="shared" ref="A33:A39" si="2">A3</f>
         <v>5</v>
@@ -1109,11 +1805,11 @@
       </c>
       <c r="C33">
         <f t="shared" si="3"/>
-        <v>5.0283785676665111</v>
+        <v>5.0492337886349112</v>
       </c>
       <c r="D33">
         <f t="shared" si="3"/>
-        <v>4.973479384592121</v>
+        <v>5.0390110733837474</v>
       </c>
       <c r="E33">
         <f t="shared" si="3"/>
@@ -1124,7 +1820,7 @@
         <v>5.0132499979241274</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -1135,11 +1831,11 @@
       </c>
       <c r="C34">
         <f t="shared" si="3"/>
-        <v>9.8851519908249639</v>
+        <v>9.846935472279517</v>
       </c>
       <c r="D34">
         <f t="shared" si="3"/>
-        <v>10.124646594098609</v>
+        <v>9.8552481433410577</v>
       </c>
       <c r="E34">
         <f t="shared" si="3"/>
@@ -1150,7 +1846,7 @@
         <v>9.8622905413013946</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <f t="shared" si="2"/>
         <v>15</v>
@@ -1161,11 +1857,11 @@
       </c>
       <c r="C35">
         <f t="shared" si="3"/>
-        <v>14.961510395103737</v>
+        <v>14.915563360005461</v>
       </c>
       <c r="D35">
         <f t="shared" si="3"/>
-        <v>15.130729758709002</v>
+        <v>14.822649176941603</v>
       </c>
       <c r="E35">
         <f t="shared" si="3"/>
@@ -1176,7 +1872,7 @@
         <v>15.080055130376824</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <f t="shared" si="2"/>
         <v>20</v>
@@ -1187,11 +1883,11 @@
       </c>
       <c r="C36">
         <f t="shared" si="3"/>
-        <v>19.948004216055224</v>
+        <v>19.768708980869917</v>
       </c>
       <c r="D36">
         <f t="shared" si="3"/>
-        <v>19.605536395564364</v>
+        <v>19.931576045323663</v>
       </c>
       <c r="E36">
         <f t="shared" si="3"/>
@@ -1202,7 +1898,7 @@
         <v>20.336101618273563</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <f t="shared" si="2"/>
         <v>25</v>
@@ -1213,11 +1909,11 @@
       </c>
       <c r="C37">
         <f t="shared" si="3"/>
-        <v>25.276498380582325</v>
+        <v>25.215762324395172</v>
       </c>
       <c r="D37">
         <f t="shared" si="3"/>
-        <v>24.927548903308757</v>
+        <v>25.476336120961911</v>
       </c>
       <c r="E37">
         <f t="shared" si="3"/>
@@ -1228,7 +1924,7 @@
         <v>25.943523290963913</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <f t="shared" si="2"/>
         <v>30</v>
@@ -1239,11 +1935,11 @@
       </c>
       <c r="C38">
         <f t="shared" si="3"/>
-        <v>30.271422058922418</v>
+        <v>29.962215946156363</v>
       </c>
       <c r="D38">
         <f t="shared" si="3"/>
-        <v>30.043885100253483</v>
+        <v>31.088898596560583</v>
       </c>
       <c r="E38">
         <f t="shared" si="3"/>
@@ -1254,7 +1950,7 @@
         <v>29.01014983005723</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <f t="shared" si="2"/>
         <v>35</v>
@@ -1265,11 +1961,11 @@
       </c>
       <c r="C39">
         <f t="shared" si="3"/>
-        <v>34.820297259704731</v>
+        <v>35.943708745958062</v>
       </c>
       <c r="D39">
         <f t="shared" si="3"/>
-        <v>35.125136460658631</v>
+        <v>34.125507357819949</v>
       </c>
       <c r="E39">
         <f t="shared" si="3"/>
@@ -1286,7 +1982,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{558F13F8-FE73-45A7-88B3-F428177E8C39}">
   <dimension ref="A1:H36"/>
   <sheetViews>
@@ -1294,18 +1990,18 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1313,7 +2009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>5</v>
       </c>
@@ -1321,7 +2017,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>15</v>
       </c>
@@ -1329,7 +2025,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>25</v>
       </c>
@@ -1337,7 +2033,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>35</v>
       </c>
@@ -1345,7 +2041,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>45</v>
       </c>
@@ -1353,7 +2049,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>55</v>
       </c>
@@ -1361,7 +2057,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>30</v>
       </c>
@@ -1369,7 +2065,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13">
         <f t="shared" ref="B13:B18" si="0">1/($A3+B$12)</f>
         <v>2.8571428571428571E-2</v>
@@ -1378,7 +2074,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14">
         <f t="shared" si="0"/>
         <v>2.2222222222222223E-2</v>
@@ -1392,7 +2088,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15">
         <f t="shared" si="0"/>
         <v>1.8181818181818181E-2</v>
@@ -1406,7 +2102,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16">
         <f t="shared" si="0"/>
         <v>1.5384615384615385E-2</v>
@@ -1420,7 +2116,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B17">
         <f t="shared" si="0"/>
         <v>1.3333333333333334E-2</v>
@@ -1434,7 +2130,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B18">
         <f t="shared" si="0"/>
         <v>1.1764705882352941E-2</v>
@@ -1448,7 +2144,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G19">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -1458,17 +2154,17 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -1477,7 +2173,7 @@
         <v>3.4833968202797414E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -1486,22 +2182,22 @@
         <v>4.2926680879346674E-5</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>4.2926680879346674E-5</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -1509,7 +2205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
         <f t="shared" ref="A31:A36" si="3">A3</f>
         <v>5</v>
@@ -1519,7 +2215,7 @@
         <v>5.7212620737238709</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
         <f t="shared" si="3"/>
         <v>15</v>
@@ -1529,7 +2225,7 @@
         <v>13.288375502981907</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
         <f t="shared" si="3"/>
         <v>25</v>
@@ -1539,7 +2235,7 @@
         <v>24.665415144274057</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
         <f t="shared" si="3"/>
         <v>35</v>
@@ -1549,7 +2245,7 @@
         <v>36.341149849220088</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
         <f t="shared" si="3"/>
         <v>45</v>
@@ -1559,7 +2255,7 @@
         <v>46.341860865996765</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
         <f t="shared" si="3"/>
         <v>55</v>
@@ -1567,715 +2263,6 @@
       <c r="B36">
         <f t="shared" si="4"/>
         <v>54.054618110782258</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DE365FD-844F-40B5-B0D1-185FCF6C986C}">
-  <dimension ref="A1:N40"/>
-  <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="6" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1">
-        <v>625</v>
-      </c>
-      <c r="C3" s="1">
-        <v>634</v>
-      </c>
-      <c r="D3" s="1">
-        <v>630</v>
-      </c>
-      <c r="E3" s="1">
-        <v>534</v>
-      </c>
-      <c r="F3" s="1">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1">
-        <v>624</v>
-      </c>
-      <c r="C4" s="1">
-        <v>634</v>
-      </c>
-      <c r="D4" s="1">
-        <v>628</v>
-      </c>
-      <c r="E4" s="1">
-        <v>491</v>
-      </c>
-      <c r="F4" s="1">
-        <v>458</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1">
-        <v>589</v>
-      </c>
-      <c r="C5" s="1">
-        <v>608</v>
-      </c>
-      <c r="D5" s="1">
-        <v>573</v>
-      </c>
-      <c r="E5" s="1">
-        <v>445</v>
-      </c>
-      <c r="F5" s="1">
-        <v>421</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1">
-        <v>538</v>
-      </c>
-      <c r="C6" s="1">
-        <v>556</v>
-      </c>
-      <c r="D6" s="1">
-        <v>521</v>
-      </c>
-      <c r="E6" s="1">
-        <v>416</v>
-      </c>
-      <c r="F6" s="1">
-        <v>389</v>
-      </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1">
-        <v>500</v>
-      </c>
-      <c r="C7" s="1">
-        <v>503</v>
-      </c>
-      <c r="D7" s="1">
-        <v>478</v>
-      </c>
-      <c r="E7" s="1">
-        <v>383</v>
-      </c>
-      <c r="F7" s="1">
-        <v>363</v>
-      </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="J11" t="s">
-        <v>2</v>
-      </c>
-      <c r="M11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B12">
-        <v>100</v>
-      </c>
-      <c r="C12">
-        <v>100</v>
-      </c>
-      <c r="D12">
-        <v>10</v>
-      </c>
-      <c r="E12">
-        <v>5</v>
-      </c>
-      <c r="F12">
-        <v>30</v>
-      </c>
-      <c r="J12" t="s">
-        <v>3</v>
-      </c>
-      <c r="K12" t="s">
-        <v>4</v>
-      </c>
-      <c r="L12" t="s">
-        <v>5</v>
-      </c>
-      <c r="M12" t="s">
-        <v>2</v>
-      </c>
-      <c r="N12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B14">
-        <f t="shared" ref="B14:F19" si="0">1/($A3+B$12)</f>
-        <v>9.7087378640776691E-3</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="0"/>
-        <v>9.7087378640776691E-3</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="0"/>
-        <v>0.125</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="0"/>
-        <v>3.0303030303030304E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B15">
-        <f t="shared" si="0"/>
-        <v>9.6153846153846159E-3</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="0"/>
-        <v>9.6153846153846159E-3</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="0"/>
-        <v>7.1428571428571425E-2</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="0"/>
-        <v>2.9411764705882353E-2</v>
-      </c>
-      <c r="I15">
-        <v>4</v>
-      </c>
-      <c r="J15">
-        <f t="shared" ref="J14:N19" si="1">B36</f>
-        <v>4.0669607179618623</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="1"/>
-        <v>4.5618368411897592</v>
-      </c>
-      <c r="L15">
-        <f>D36</f>
-        <v>3.9570405727923621</v>
-      </c>
-      <c r="M15">
-        <f t="shared" si="1"/>
-        <v>3.904684074808257</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="1"/>
-        <v>4.0334435611168118</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B16">
-        <f t="shared" si="0"/>
-        <v>9.5238095238095247E-3</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="0"/>
-        <v>9.5238095238095247E-3</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="0"/>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="0"/>
-        <v>2.8571428571428571E-2</v>
-      </c>
-      <c r="I16">
-        <v>5</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="1"/>
-        <v>4.8743439007414651</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="1"/>
-        <v>5.036868775117938</v>
-      </c>
-      <c r="L16">
-        <f t="shared" si="1"/>
-        <v>4.9374201787994885</v>
-      </c>
-      <c r="M16">
-        <f t="shared" si="1"/>
-        <v>5.0350455253827082</v>
-      </c>
-      <c r="N16">
-        <f t="shared" si="1"/>
-        <v>5.0892853708836654</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B17">
-        <f t="shared" si="0"/>
-        <v>9.433962264150943E-3</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="0"/>
-        <v>9.433962264150943E-3</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="0"/>
-        <v>6.25E-2</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="0"/>
-        <v>9.0909090909090912E-2</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="0"/>
-        <v>2.7777777777777776E-2</v>
-      </c>
-      <c r="I17">
-        <v>6</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="1"/>
-        <v>6.0735003855135545</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="L17">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="M17">
-        <f t="shared" si="1"/>
-        <v>5.9079836618351429</v>
-      </c>
-      <c r="N17">
-        <f t="shared" si="1"/>
-        <v>6.0567332861779732</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B18">
-        <f t="shared" si="0"/>
-        <v>9.3457943925233638E-3</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="0"/>
-        <v>9.3457943925233638E-3</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="0"/>
-        <v>5.8823529411764705E-2</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="0"/>
-        <v>2.7027027027027029E-2</v>
-      </c>
-      <c r="I18">
-        <v>7</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="1"/>
-        <v>6.9849712658453029</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="L18">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="M18">
-        <f t="shared" si="1"/>
-        <v>7.1063612888585936</v>
-      </c>
-      <c r="N18">
-        <f t="shared" si="1"/>
-        <v>6.8829657881330348</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B19">
-        <f t="shared" si="0"/>
-        <v>9.2592592592592587E-3</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="0"/>
-        <v>9.2592592592592587E-3</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="0"/>
-        <v>5.5555555555555552E-2</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="0"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="0"/>
-        <v>2.6315789473684209E-2</v>
-      </c>
-      <c r="I19">
-        <v>8</v>
-      </c>
-      <c r="J19">
-        <f t="shared" si="1"/>
-        <v>20.623029382438162</v>
-      </c>
-      <c r="K19">
-        <f t="shared" si="1"/>
-        <v>17.522189638318721</v>
-      </c>
-      <c r="L19">
-        <f t="shared" si="1"/>
-        <v>45.695238095238146</v>
-      </c>
-      <c r="M19">
-        <f t="shared" si="1"/>
-        <v>-49.011919528143736</v>
-      </c>
-      <c r="N19">
-        <f t="shared" si="1"/>
-        <v>24.233732431943068</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B23" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B24" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" t="s">
-        <v>2</v>
-      </c>
-      <c r="F24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25">
-        <f>INTERCEPT(B15:B19,B4:B8)</f>
-        <v>8.2902908766242008E-3</v>
-      </c>
-      <c r="C25">
-        <f>INTERCEPT(C17:C19,C6:C8)</f>
-        <v>8.5090313844352061E-3</v>
-      </c>
-      <c r="D25">
-        <f>INTERCEPT(D17:D19,D6:D8)</f>
-        <v>1.7954856361149095E-2</v>
-      </c>
-      <c r="E25">
-        <f>INTERCEPT(E14:E18,E3:E7)</f>
-        <v>-2.272111761361699E-2</v>
-      </c>
-      <c r="F25">
-        <f>INTERCEPT(F14:F18,F3:F7)</f>
-        <v>1.8438708810146563E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26">
-        <f>SLOPE(B15:B19,B4:B8)</f>
-        <v>2.1136327362823823E-6</v>
-      </c>
-      <c r="C26">
-        <f>SLOPE(C17:C19,C6:C8)</f>
-        <v>1.6635447476901746E-6</v>
-      </c>
-      <c r="D26">
-        <f>SLOPE(D17:D19,D6:D8)</f>
-        <v>8.5499316005471982E-5</v>
-      </c>
-      <c r="E26">
-        <f>SLOPE(E14:E18,E3:E7)</f>
-        <v>2.7499300283015442E-4</v>
-      </c>
-      <c r="F26">
-        <f>SLOPE(F14:F18,F3:F7)</f>
-        <v>2.3895532551367711E-5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B27" s="2">
-        <v>2.11923E-6</v>
-      </c>
-      <c r="C27">
-        <v>1.6635447476901746E-6</v>
-      </c>
-      <c r="D27">
-        <v>8.5499316005471982E-5</v>
-      </c>
-      <c r="F27">
-        <v>2.3895532551367711E-5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B31" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B32" t="s">
-        <v>2</v>
-      </c>
-      <c r="E32" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33" t="s">
-        <v>2</v>
-      </c>
-      <c r="F33" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36">
-        <f>A4</f>
-        <v>4</v>
-      </c>
-      <c r="B36">
-        <f t="shared" ref="B35:F40" si="2">(1/B$26)/(B4+(B$25/B$26))-B$12</f>
-        <v>4.0669607179618623</v>
-      </c>
-      <c r="C36">
-        <f t="shared" si="2"/>
-        <v>4.5618368411897592</v>
-      </c>
-      <c r="D36">
-        <f>(1/D$26)/(D4+(D$25/D$26))-D$12</f>
-        <v>3.9570405727923621</v>
-      </c>
-      <c r="E36">
-        <f t="shared" si="2"/>
-        <v>3.904684074808257</v>
-      </c>
-      <c r="F36">
-        <f t="shared" si="2"/>
-        <v>4.0334435611168118</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37">
-        <f>A5</f>
-        <v>5</v>
-      </c>
-      <c r="B37">
-        <f t="shared" si="2"/>
-        <v>4.8743439007414651</v>
-      </c>
-      <c r="C37">
-        <f t="shared" si="2"/>
-        <v>5.036868775117938</v>
-      </c>
-      <c r="D37">
-        <f t="shared" si="2"/>
-        <v>4.9374201787994885</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="2"/>
-        <v>5.0350455253827082</v>
-      </c>
-      <c r="F37">
-        <f t="shared" si="2"/>
-        <v>5.0892853708836654</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38">
-        <f>A6</f>
-        <v>6</v>
-      </c>
-      <c r="B38">
-        <f t="shared" si="2"/>
-        <v>6.0735003855135545</v>
-      </c>
-      <c r="C38">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="D38">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="E38">
-        <f t="shared" si="2"/>
-        <v>5.9079836618351429</v>
-      </c>
-      <c r="F38">
-        <f t="shared" si="2"/>
-        <v>6.0567332861779732</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39">
-        <f>A7</f>
-        <v>7</v>
-      </c>
-      <c r="B39">
-        <f t="shared" si="2"/>
-        <v>6.9849712658453029</v>
-      </c>
-      <c r="C39">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="D39">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="E39">
-        <f t="shared" si="2"/>
-        <v>7.1063612888585936</v>
-      </c>
-      <c r="F39">
-        <f t="shared" si="2"/>
-        <v>6.8829657881330348</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40">
-        <f>A8</f>
-        <v>8</v>
-      </c>
-      <c r="B40">
-        <f t="shared" si="2"/>
-        <v>20.623029382438162</v>
-      </c>
-      <c r="C40">
-        <f t="shared" si="2"/>
-        <v>17.522189638318721</v>
-      </c>
-      <c r="D40">
-        <f t="shared" si="2"/>
-        <v>45.695238095238146</v>
-      </c>
-      <c r="E40">
-        <f t="shared" si="2"/>
-        <v>-49.011919528143736</v>
-      </c>
-      <c r="F40">
-        <f t="shared" si="2"/>
-        <v>24.233732431943068</v>
       </c>
     </row>
   </sheetData>

--- a/Sensor.xlsx
+++ b/Sensor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Limzui\Documents\GitHub\CE3004-MDP-ARDUINO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{925459B3-3023-40D0-B632-05AE2B121463}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{014F522F-97E8-43CC-B760-82F2666A7085}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" firstSheet="1" activeTab="1" xr2:uid="{6602DABA-150B-41F0-8105-E6E9BFF209EE}"/>
+    <workbookView xWindow="768" yWindow="1620" windowWidth="17280" windowHeight="8964" xr2:uid="{6602DABA-150B-41F0-8105-E6E9BFF209EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Calibration" sheetId="6" r:id="rId1"/>
@@ -423,8 +423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DE365FD-844F-40B5-B0D1-185FCF6C986C}">
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1132,8 +1132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBC94E3C-D284-4D19-92AB-A16814BB168E}">
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28:F28"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Sensor.xlsx
+++ b/Sensor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Limzui\Documents\GitHub\CE3004-MDP-ARDUINO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brabalawuka\src\CE3004-MDP-ARDUINO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{014F522F-97E8-43CC-B760-82F2666A7085}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{016D958A-8ADE-4BA0-92E8-B6DBAB885465}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="1620" windowWidth="17280" windowHeight="8964" xr2:uid="{6602DABA-150B-41F0-8105-E6E9BFF209EE}"/>
+    <workbookView xWindow="-10560" yWindow="313" windowWidth="19200" windowHeight="10520" activeTab="2" xr2:uid="{6602DABA-150B-41F0-8105-E6E9BFF209EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Calibration" sheetId="6" r:id="rId1"/>
@@ -25,7 +25,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -423,16 +425,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DE365FD-844F-40B5-B0D1-185FCF6C986C}">
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="2" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -440,7 +442,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -460,7 +462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>3</v>
       </c>
@@ -480,7 +482,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>4</v>
       </c>
@@ -502,7 +504,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>5</v>
       </c>
@@ -524,7 +526,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>6</v>
       </c>
@@ -546,7 +548,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>7</v>
       </c>
@@ -568,10 +570,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>8</v>
-      </c>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -580,11 +579,11 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.5">
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.5">
       <c r="J11" t="s">
         <v>2</v>
       </c>
@@ -592,21 +591,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B12">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J12" t="s">
         <v>3</v>
@@ -624,254 +623,249 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A14">
+        <v>3</v>
+      </c>
       <c r="B14">
-        <f t="shared" ref="B14:F19" si="0">1/($A3+B$12)</f>
-        <v>9.7087378640776691E-3</v>
+        <f>1/($B3+B$12)</f>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="C14">
-        <f t="shared" si="0"/>
-        <v>9.7087378640776691E-3</v>
+        <f>1/($C3+C$12)</f>
+        <v>1.5772870662460567E-3</v>
       </c>
       <c r="D14">
-        <f t="shared" si="0"/>
-        <v>7.6923076923076927E-2</v>
+        <f>1/($D3+D$12)</f>
+        <v>1.5873015873015873E-3</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
-        <v>0.125</v>
+        <f>1/($E3+E$12)</f>
+        <v>1.8726591760299626E-3</v>
       </c>
       <c r="F14">
-        <f t="shared" si="0"/>
-        <v>3.0303030303030304E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+        <f>1/($F3+F$12)</f>
+        <v>2.004008016032064E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A15">
+        <v>4</v>
+      </c>
       <c r="B15">
-        <f t="shared" si="0"/>
-        <v>9.6153846153846159E-3</v>
+        <f t="shared" ref="B15:B19" si="0">1/($B4+B$12)</f>
+        <v>1.6025641025641025E-3</v>
       </c>
       <c r="C15">
-        <f t="shared" si="0"/>
-        <v>9.6153846153846159E-3</v>
+        <f t="shared" ref="C15:C18" si="1">1/($C4+C$12)</f>
+        <v>1.5873015873015873E-3</v>
       </c>
       <c r="D15">
-        <f t="shared" si="0"/>
-        <v>7.1428571428571425E-2</v>
+        <f t="shared" ref="D15:D18" si="2">1/($D4+D$12)</f>
+        <v>1.6366612111292963E-3</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
+        <f t="shared" ref="E15:E18" si="3">1/($E4+E$12)</f>
+        <v>2.0366598778004071E-3</v>
       </c>
       <c r="F15">
-        <f t="shared" si="0"/>
-        <v>2.9411764705882353E-2</v>
+        <f t="shared" ref="F15:F18" si="4">1/($F4+F$12)</f>
+        <v>2.1834061135371178E-3</v>
       </c>
       <c r="I15">
         <v>4</v>
       </c>
       <c r="J15">
-        <f t="shared" ref="J15:N19" si="1">B36</f>
-        <v>4.0669607179618623</v>
+        <f t="shared" ref="J15:N19" si="5">B36</f>
+        <v>4.1051370090074819</v>
       </c>
       <c r="K15">
-        <f t="shared" si="1"/>
-        <v>4.1888664339518584</v>
+        <f t="shared" si="5"/>
+        <v>4.0412057589953641</v>
       </c>
       <c r="L15">
         <f>D36</f>
-        <v>4.068965517241379</v>
+        <v>4.0018756802659112</v>
       </c>
       <c r="M15">
-        <f t="shared" si="1"/>
-        <v>3.904684074808257</v>
+        <f t="shared" si="5"/>
+        <v>3.9585647161544575</v>
       </c>
       <c r="N15">
-        <f t="shared" si="1"/>
-        <v>4.0334435611168118</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>4.0030451290792204</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A16">
+        <v>5</v>
+      </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>9.5238095238095247E-3</v>
+        <v>1.697792869269949E-3</v>
       </c>
       <c r="C16">
-        <f t="shared" si="0"/>
-        <v>9.5238095238095247E-3</v>
+        <f t="shared" si="1"/>
+        <v>1.7094017094017094E-3</v>
       </c>
       <c r="D16">
-        <f t="shared" si="0"/>
-        <v>6.6666666666666666E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.7921146953405018E-3</v>
       </c>
       <c r="E16">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
+        <f t="shared" si="3"/>
+        <v>2.2471910112359553E-3</v>
       </c>
       <c r="F16">
-        <f t="shared" si="0"/>
-        <v>2.8571428571428571E-2</v>
+        <f t="shared" si="4"/>
+        <v>2.3752969121140144E-3</v>
       </c>
       <c r="I16">
         <v>5</v>
       </c>
       <c r="J16">
-        <f t="shared" si="1"/>
-        <v>4.8743439007414651</v>
+        <f t="shared" si="5"/>
+        <v>4.8326542843682478</v>
       </c>
       <c r="K16">
-        <f t="shared" si="1"/>
-        <v>5.0574286772878878</v>
+        <f t="shared" si="5"/>
+        <v>4.9258664246645907</v>
       </c>
       <c r="L16">
-        <f t="shared" si="1"/>
-        <v>5.0513833992094863</v>
+        <f t="shared" si="5"/>
+        <v>4.9962695144695015</v>
       </c>
       <c r="M16">
-        <f t="shared" si="1"/>
-        <v>5.0350455253827082</v>
+        <f t="shared" si="5"/>
+        <v>5.0971207667915603</v>
       </c>
       <c r="N16">
-        <f t="shared" si="1"/>
-        <v>5.0892853708836654</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>4.9939643862839613</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A17">
+        <v>6</v>
+      </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>9.433962264150943E-3</v>
+        <v>1.8587360594795538E-3</v>
       </c>
       <c r="C17">
-        <f t="shared" si="0"/>
-        <v>9.433962264150943E-3</v>
+        <f t="shared" si="1"/>
+        <v>1.8621973929236499E-3</v>
       </c>
       <c r="D17">
-        <f t="shared" si="0"/>
-        <v>6.25E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.9493177387914229E-3</v>
       </c>
       <c r="E17">
-        <f t="shared" si="0"/>
-        <v>9.0909090909090912E-2</v>
+        <f t="shared" si="3"/>
+        <v>2.403846153846154E-3</v>
       </c>
       <c r="F17">
-        <f t="shared" si="0"/>
-        <v>2.7777777777777776E-2</v>
+        <f t="shared" si="4"/>
+        <v>2.5706940874035988E-3</v>
       </c>
       <c r="I17">
         <v>6</v>
       </c>
       <c r="J17">
-        <f t="shared" si="1"/>
-        <v>6.0735003855135545</v>
+        <f t="shared" si="5"/>
+        <v>6.0622087066242756</v>
       </c>
       <c r="K17">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <f t="shared" si="5"/>
+        <v>6.0329278163400453</v>
       </c>
       <c r="L17">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <f t="shared" si="5"/>
+        <v>6.0018548052645908</v>
       </c>
       <c r="M17">
-        <f t="shared" si="1"/>
-        <v>5.9079836618351429</v>
+        <f t="shared" si="5"/>
+        <v>5.9443145170539822</v>
       </c>
       <c r="N17">
-        <f t="shared" si="1"/>
-        <v>6.0567332861779732</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>6.0029904846368183</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A18">
+        <v>7</v>
+      </c>
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>9.3457943925233638E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="C18">
-        <f t="shared" si="0"/>
-        <v>9.3457943925233638E-3</v>
+        <f t="shared" si="1"/>
+        <v>2.0533880903490761E-3</v>
       </c>
       <c r="D18">
-        <f t="shared" si="0"/>
-        <v>5.8823529411764705E-2</v>
+        <f t="shared" si="2"/>
+        <v>2.1231422505307855E-3</v>
       </c>
       <c r="E18">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
+        <f t="shared" si="3"/>
+        <v>2.6109660574412533E-3</v>
       </c>
       <c r="F18">
-        <f t="shared" si="0"/>
-        <v>2.7027027027027029E-2</v>
+        <f t="shared" si="4"/>
+        <v>2.7548209366391185E-3</v>
       </c>
       <c r="I18">
         <v>7</v>
       </c>
       <c r="J18">
-        <f t="shared" si="1"/>
-        <v>6.9849712658453029</v>
+        <f t="shared" si="5"/>
+        <v>7.1414199646217025</v>
       </c>
       <c r="K18">
-        <f t="shared" si="1"/>
-        <v>7</v>
+        <f t="shared" si="5"/>
+        <v>7.4181753226074605</v>
       </c>
       <c r="L18">
-        <f t="shared" si="1"/>
-        <v>7</v>
+        <f t="shared" si="5"/>
+        <v>7.1137631268061661</v>
       </c>
       <c r="M18">
-        <f t="shared" si="1"/>
-        <v>7.1063612888585936</v>
+        <f t="shared" si="5"/>
+        <v>7.064422577070518</v>
       </c>
       <c r="N18">
-        <f t="shared" si="1"/>
-        <v>6.8829657881330348</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B19">
-        <f t="shared" si="0"/>
-        <v>9.2592592592592587E-3</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="0"/>
-        <v>9.2592592592592587E-3</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="0"/>
-        <v>5.5555555555555552E-2</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="0"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="0"/>
-        <v>2.6315789473684209E-2</v>
-      </c>
+        <f t="shared" si="5"/>
+        <v>6.953816902729999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.5">
       <c r="I19">
         <v>8</v>
       </c>
-      <c r="J19">
-        <f t="shared" si="1"/>
-        <v>20.623029382438162</v>
+      <c r="J19" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="K19">
-        <f t="shared" si="1"/>
-        <v>17.826719301890762</v>
+        <f t="shared" si="5"/>
+        <v>-0.13405934701514011</v>
       </c>
       <c r="L19">
-        <f t="shared" si="1"/>
-        <v>46.83582089552241</v>
+        <f t="shared" si="5"/>
+        <v>-0.15462157388868294</v>
       </c>
       <c r="M19">
-        <f t="shared" si="1"/>
-        <v>-49.011919528143736</v>
+        <f t="shared" si="5"/>
+        <v>-0.14172882926401612</v>
       </c>
       <c r="N19">
-        <f t="shared" si="1"/>
-        <v>24.233732431943068</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>-0.13751357888148585</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B23" t="s">
         <v>2</v>
       </c>
@@ -879,7 +873,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B24" t="s">
         <v>3</v>
       </c>
@@ -896,63 +890,58 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
         <v>6</v>
       </c>
       <c r="B25">
-        <f>INTERCEPT(B15:B19,B4:B8)</f>
-        <v>8.2902908766242008E-3</v>
+        <f>INTERCEPT($A15:$A17,B15:B17)</f>
+        <v>-8.1379394249208232</v>
       </c>
       <c r="C25">
-        <f>INTERCEPT(C17:C19,C6:C8)</f>
-        <v>8.4870393228707423E-3</v>
+        <f t="shared" ref="C25:F25" si="6">INTERCEPT($A15:$A17,C15:C17)</f>
+        <v>-7.4593828947045697</v>
       </c>
       <c r="D25">
-        <f>INTERCEPT(D17:D19,D6:D8)</f>
-        <v>1.7594537815126043E-2</v>
+        <f t="shared" si="6"/>
+        <v>-6.4674028005945168</v>
       </c>
       <c r="E25">
-        <f>INTERCEPT(E14:E18,E3:E7)</f>
-        <v>-2.272111761361699E-2</v>
+        <f t="shared" si="6"/>
+        <v>-7.0557275128349097</v>
       </c>
       <c r="F25">
-        <f>INTERCEPT(F14:F18,F3:F7)</f>
-        <v>1.8438708810146563E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>-7.2720091218179697</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
         <v>7</v>
       </c>
       <c r="B26">
-        <f>SLOPE(B15:B19,B4:B8)</f>
-        <v>2.1136327362823823E-6</v>
+        <f>SLOPE($A15:$A17,B15:B17)</f>
+        <v>7639.6796947712628</v>
       </c>
       <c r="C26">
-        <f>SLOPE(C17:C19,C6:C8)</f>
-        <v>1.763357432551585E-6</v>
+        <f t="shared" ref="C26:F26" si="7">SLOPE($A15:$A17,C15:C17)</f>
+        <v>7245.3708518309586</v>
       </c>
       <c r="D26">
-        <f>SLOPE(D17:D19,D6:D8)</f>
-        <v>8.7535014005602255E-5</v>
+        <f t="shared" si="7"/>
+        <v>6396.7291518057218</v>
       </c>
       <c r="E26">
-        <f>SLOPE(E14:E18,E3:E7)</f>
-        <v>2.7499300283015442E-4</v>
+        <f>SLOPE($A15:$A17,E15:E17)</f>
+        <v>5408.0174844337789</v>
       </c>
       <c r="F26">
-        <f>SLOPE(F14:F18,F3:F7)</f>
-        <v>2.3895532551367711E-5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B27" s="2">
-        <v>2.11923E-6</v>
-      </c>
-      <c r="C27">
-        <v>1.763357432551585E-6</v>
-      </c>
+        <f t="shared" si="7"/>
+        <v>5163.9748469109127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="B27" s="2"/>
       <c r="D27">
         <v>8.7535014005602296E-5</v>
       </c>
@@ -960,12 +949,12 @@
         <v>2.3895532551367711E-5</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B31" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B32" t="s">
         <v>2</v>
       </c>
@@ -973,7 +962,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -993,138 +982,139 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A36">
         <f>A4</f>
         <v>4</v>
       </c>
       <c r="B36">
-        <f t="shared" ref="B36:F40" si="2">(1/B$26)/(B4+(B$25/B$26))-B$12</f>
-        <v>4.0669607179618623</v>
+        <f>B$26/B4+B$25</f>
+        <v>4.1051370090074819</v>
       </c>
       <c r="C36">
-        <f t="shared" si="2"/>
-        <v>4.1888664339518584</v>
+        <f t="shared" ref="C36:F36" si="8">C$26/C4+C$25</f>
+        <v>4.0412057589953641</v>
       </c>
       <c r="D36">
-        <f>(1/D$26)/(D4+(D$25/D$26))-D$12</f>
-        <v>4.068965517241379</v>
+        <f t="shared" si="8"/>
+        <v>4.0018756802659112</v>
       </c>
       <c r="E36">
-        <f t="shared" si="2"/>
-        <v>3.904684074808257</v>
+        <f t="shared" si="8"/>
+        <v>3.9585647161544575</v>
       </c>
       <c r="F36">
-        <f t="shared" si="2"/>
-        <v>4.0334435611168118</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>4.0030451290792204</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A37">
         <f>A5</f>
         <v>5</v>
       </c>
       <c r="B37">
-        <f t="shared" si="2"/>
-        <v>4.8743439007414651</v>
+        <f t="shared" ref="B37:F37" si="9">B$26/B5+B$25</f>
+        <v>4.8326542843682478</v>
       </c>
       <c r="C37">
-        <f t="shared" si="2"/>
-        <v>5.0574286772878878</v>
+        <f t="shared" si="9"/>
+        <v>4.9258664246645907</v>
       </c>
       <c r="D37">
-        <f t="shared" si="2"/>
-        <v>5.0513833992094863</v>
+        <f t="shared" si="9"/>
+        <v>4.9962695144695015</v>
       </c>
       <c r="E37">
-        <f t="shared" si="2"/>
-        <v>5.0350455253827082</v>
+        <f t="shared" si="9"/>
+        <v>5.0971207667915603</v>
       </c>
       <c r="F37">
-        <f t="shared" si="2"/>
-        <v>5.0892853708836654</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>4.9939643862839613</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A38">
         <f>A6</f>
         <v>6</v>
       </c>
       <c r="B38">
-        <f t="shared" si="2"/>
-        <v>6.0735003855135545</v>
+        <f t="shared" ref="B38:F38" si="10">B$26/B6+B$25</f>
+        <v>6.0622087066242756</v>
       </c>
       <c r="C38">
-        <f t="shared" si="2"/>
-        <v>6</v>
+        <f t="shared" si="10"/>
+        <v>6.0329278163400453</v>
       </c>
       <c r="D38">
-        <f t="shared" si="2"/>
-        <v>6</v>
+        <f t="shared" si="10"/>
+        <v>6.0018548052645908</v>
       </c>
       <c r="E38">
-        <f t="shared" si="2"/>
-        <v>5.9079836618351429</v>
+        <f t="shared" si="10"/>
+        <v>5.9443145170539822</v>
       </c>
       <c r="F38">
-        <f t="shared" si="2"/>
-        <v>6.0567332861779732</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>6.0029904846368183</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A39">
         <f>A7</f>
         <v>7</v>
       </c>
       <c r="B39">
-        <f t="shared" si="2"/>
-        <v>6.9849712658453029</v>
+        <f t="shared" ref="B39:F39" si="11">B$26/B7+B$25</f>
+        <v>7.1414199646217025</v>
       </c>
       <c r="C39">
-        <f t="shared" si="2"/>
-        <v>7</v>
+        <f t="shared" si="11"/>
+        <v>7.4181753226074605</v>
       </c>
       <c r="D39">
-        <f t="shared" si="2"/>
-        <v>7</v>
+        <f t="shared" si="11"/>
+        <v>7.1137631268061661</v>
       </c>
       <c r="E39">
-        <f t="shared" si="2"/>
-        <v>7.1063612888585936</v>
+        <f t="shared" si="11"/>
+        <v>7.064422577070518</v>
       </c>
       <c r="F39">
-        <f t="shared" si="2"/>
-        <v>6.8829657881330348</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="11"/>
+        <v>6.953816902729999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A40">
         <f>A8</f>
-        <v>8</v>
-      </c>
-      <c r="B40">
-        <f t="shared" si="2"/>
-        <v>20.623029382438162</v>
+        <v>0</v>
+      </c>
+      <c r="B40" t="e">
+        <f t="shared" ref="B37:B40" si="12">B$26/B8+B$25</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="C40">
-        <f t="shared" si="2"/>
-        <v>17.826719301890762</v>
+        <f t="shared" ref="B36:F40" si="13">(1/C$26)/(C8+(C$25/C$26))-C$12</f>
+        <v>-0.13405934701514011</v>
       </c>
       <c r="D40">
-        <f t="shared" si="2"/>
-        <v>46.83582089552241</v>
+        <f t="shared" si="13"/>
+        <v>-0.15462157388868294</v>
       </c>
       <c r="E40">
-        <f t="shared" si="2"/>
-        <v>-49.011919528143736</v>
+        <f t="shared" si="13"/>
+        <v>-0.14172882926401612</v>
       </c>
       <c r="F40">
-        <f t="shared" si="2"/>
-        <v>24.233732431943068</v>
+        <f t="shared" si="13"/>
+        <v>-0.13751357888148585</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1132,16 +1122,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBC94E3C-D284-4D19-92AB-A16814BB168E}">
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.5">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -1149,7 +1139,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1169,7 +1159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>5</v>
       </c>
@@ -1189,7 +1179,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>10</v>
       </c>
@@ -1209,7 +1199,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>15</v>
       </c>
@@ -1229,7 +1219,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>20</v>
       </c>
@@ -1249,7 +1239,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>25</v>
       </c>
@@ -1269,7 +1259,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>30</v>
       </c>
@@ -1289,7 +1279,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>35</v>
       </c>
@@ -1309,21 +1299,21 @@
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.5">
       <c r="B13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L13" t="s">
         <v>2</v>
@@ -1332,26 +1322,29 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A14">
+        <v>5</v>
+      </c>
       <c r="B14">
-        <f>1/($A3+B$13)</f>
-        <v>0.1</v>
+        <f>1/(B3)</f>
+        <v>1.697792869269949E-3</v>
       </c>
       <c r="C14">
-        <f t="shared" ref="B14:F20" si="0">1/($A3+C$13)</f>
-        <v>0.10526315789473684</v>
+        <f t="shared" ref="C14:F14" si="0">1/(C3)</f>
+        <v>1.7094017094017094E-3</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>0.11764705882352941</v>
+        <v>1.7921146953405018E-3</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>9.0909090909090912E-2</v>
+        <v>2.2471910112359553E-3</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>2.3752969121140144E-3</v>
       </c>
       <c r="L14" t="s">
         <v>3</v>
@@ -1369,324 +1362,342 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A15">
+        <v>10</v>
+      </c>
       <c r="B15">
-        <f>1/($A4+B$13)</f>
-        <v>6.6666666666666666E-2</v>
+        <f t="shared" ref="B15:F20" si="1">1/(B4)</f>
+        <v>2.4937655860349127E-3</v>
       </c>
       <c r="C15">
-        <f t="shared" si="0"/>
-        <v>6.8965517241379309E-2</v>
+        <f t="shared" si="1"/>
+        <v>2.6246719160104987E-3</v>
       </c>
       <c r="D15">
-        <f t="shared" si="0"/>
-        <v>7.407407407407407E-2</v>
+        <f t="shared" si="1"/>
+        <v>2.6525198938992041E-3</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
-        <v>6.25E-2</v>
+        <f t="shared" si="1"/>
+        <v>3.1545741324921135E-3</v>
       </c>
       <c r="F15">
-        <f t="shared" si="0"/>
-        <v>6.6666666666666666E-2</v>
+        <f t="shared" si="1"/>
+        <v>3.3557046979865771E-3</v>
       </c>
       <c r="J15">
         <v>5</v>
       </c>
       <c r="L15">
-        <f t="shared" ref="L15:P21" si="1">ROUND(B33,0)</f>
+        <f t="shared" ref="L15:P21" si="2">ROUND(B33,0)</f>
         <v>5</v>
       </c>
       <c r="M15">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="N15">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="O15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="P15">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A16">
+        <v>15</v>
+      </c>
       <c r="B16">
-        <f>1/($A5+B$13)</f>
-        <v>0.05</v>
+        <f t="shared" si="1"/>
+        <v>3.2573289902280132E-3</v>
       </c>
       <c r="C16">
-        <f t="shared" si="0"/>
-        <v>5.128205128205128E-2</v>
+        <f t="shared" si="1"/>
+        <v>3.6363636363636364E-3</v>
       </c>
       <c r="D16">
-        <f t="shared" si="0"/>
-        <v>5.4054054054054057E-2</v>
+        <f t="shared" si="1"/>
+        <v>3.4482758620689655E-3</v>
       </c>
       <c r="E16">
-        <f t="shared" si="0"/>
-        <v>4.7619047619047616E-2</v>
+        <f t="shared" si="1"/>
+        <v>4.0650406504065045E-3</v>
       </c>
       <c r="F16">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
+        <f t="shared" si="1"/>
+        <v>4.3103448275862068E-3</v>
       </c>
       <c r="J16">
         <v>10</v>
       </c>
       <c r="L16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="M16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="N16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="O16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="P16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A17">
+        <v>20</v>
+      </c>
       <c r="B17">
-        <f t="shared" si="0"/>
-        <v>0.04</v>
+        <f t="shared" si="1"/>
+        <v>4.1322314049586778E-3</v>
       </c>
       <c r="C17">
-        <f t="shared" si="0"/>
-        <v>4.0816326530612242E-2</v>
+        <f t="shared" si="1"/>
+        <v>4.6511627906976744E-3</v>
       </c>
       <c r="D17">
-        <f t="shared" si="0"/>
-        <v>4.2553191489361701E-2</v>
+        <f t="shared" si="1"/>
+        <v>4.1841004184100415E-3</v>
       </c>
       <c r="E17">
-        <f t="shared" si="0"/>
-        <v>3.8461538461538464E-2</v>
+        <f t="shared" si="1"/>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F17">
-        <f t="shared" si="0"/>
-        <v>0.04</v>
+        <f t="shared" si="1"/>
+        <v>5.1813471502590676E-3</v>
       </c>
       <c r="J17">
         <v>15</v>
       </c>
       <c r="L17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="M17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="N17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="O17">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
       <c r="P17">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A18">
+        <v>25</v>
+      </c>
       <c r="B18">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
+        <f t="shared" si="1"/>
+        <v>4.8543689320388345E-3</v>
       </c>
       <c r="C18">
-        <f t="shared" si="0"/>
-        <v>3.3898305084745763E-2</v>
+        <f t="shared" si="1"/>
+        <v>5.8479532163742687E-3</v>
       </c>
       <c r="D18">
-        <f t="shared" si="0"/>
-        <v>3.5087719298245612E-2</v>
+        <f t="shared" si="1"/>
+        <v>4.9019607843137254E-3</v>
       </c>
       <c r="E18">
-        <f t="shared" si="0"/>
-        <v>3.2258064516129031E-2</v>
+        <f t="shared" si="1"/>
+        <v>5.7803468208092483E-3</v>
       </c>
       <c r="F18">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
+        <f t="shared" si="1"/>
+        <v>6.024096385542169E-3</v>
       </c>
       <c r="J18">
         <v>20</v>
       </c>
       <c r="L18">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <f t="shared" si="2"/>
+        <v>21</v>
       </c>
       <c r="M18">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <f t="shared" si="2"/>
+        <v>19</v>
       </c>
       <c r="N18">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <f t="shared" si="2"/>
+        <v>21</v>
       </c>
       <c r="O18">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <f t="shared" si="2"/>
+        <v>21</v>
       </c>
       <c r="P18">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A19">
+        <v>30</v>
+      </c>
       <c r="B19">
-        <f t="shared" si="0"/>
-        <v>2.8571428571428571E-2</v>
+        <f t="shared" si="1"/>
+        <v>5.5555555555555558E-3</v>
       </c>
       <c r="C19">
-        <f t="shared" si="0"/>
-        <v>2.8985507246376812E-2</v>
+        <f t="shared" si="1"/>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="D19">
-        <f t="shared" si="0"/>
-        <v>2.9850746268656716E-2</v>
+        <f t="shared" si="1"/>
+        <v>5.5555555555555558E-3</v>
       </c>
       <c r="E19">
-        <f t="shared" si="0"/>
-        <v>2.7777777777777776E-2</v>
+        <f t="shared" si="1"/>
+        <v>6.6666666666666671E-3</v>
       </c>
       <c r="F19">
-        <f t="shared" si="0"/>
-        <v>2.8571428571428571E-2</v>
+        <f t="shared" si="1"/>
+        <v>6.4516129032258064E-3</v>
       </c>
       <c r="J19">
         <v>25</v>
       </c>
       <c r="L19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="M19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="N19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="O19">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
       <c r="P19">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A20">
+        <v>35</v>
+      </c>
       <c r="B20">
-        <f t="shared" si="0"/>
-        <v>2.5000000000000001E-2</v>
+        <f t="shared" si="1"/>
+        <v>6.2893081761006293E-3</v>
       </c>
       <c r="C20">
-        <f t="shared" si="0"/>
-        <v>2.5316455696202531E-2</v>
+        <f t="shared" si="1"/>
+        <v>8.4033613445378148E-3</v>
       </c>
       <c r="D20">
-        <f t="shared" si="0"/>
-        <v>2.5974025974025976E-2</v>
+        <f t="shared" si="1"/>
+        <v>5.8823529411764705E-3</v>
       </c>
       <c r="E20">
-        <f t="shared" si="0"/>
-        <v>2.4390243902439025E-2</v>
+        <f t="shared" si="1"/>
+        <v>7.462686567164179E-3</v>
       </c>
       <c r="F20">
-        <f t="shared" si="0"/>
-        <v>2.5000000000000001E-2</v>
+        <f t="shared" si="1"/>
+        <v>7.1428571428571426E-3</v>
       </c>
       <c r="J20">
         <v>30</v>
       </c>
       <c r="L20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="M20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="N20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="O20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="P20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.5">
       <c r="J21">
         <v>35</v>
       </c>
       <c r="L21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="M21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="N21">
-        <f t="shared" si="1"/>
-        <v>34</v>
+        <f t="shared" si="2"/>
+        <v>33</v>
       </c>
       <c r="O21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="P21">
-        <f t="shared" si="1"/>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.5">
       <c r="L23">
         <f>ABS(L15-$J15)+ABS(L16-$J16)+ABS(L17-$J17)+ABS(L18-$J18)+ABS(L19-$J19)+ABS(L20-$J20)+ABS(L21-$J21)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23">
         <f>ABS(M15-$J15)+ABS(M16-$J16)+ABS(M17-$J17)+ABS(M18-$J18)+ABS(M19-$J19)+ABS(M20-$J20)+ABS(M21-$J21)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N23">
         <f>ABS(N15-$J15)+ABS(N16-$J16)+ABS(N17-$J17)+ABS(N18-$J18)+ABS(N19-$J19)+ABS(N20-$J20)+ABS(N21-$J21)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="O23">
         <f>ABS(O15-$J15)+ABS(O16-$J16)+ABS(O17-$J17)+ABS(O18-$J18)+ABS(O19-$J19)+ABS(O20-$J20)+ABS(O21-$J21)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23">
         <f>ABS(P15-$J15)+ABS(P16-$J16)+ABS(P17-$J17)+ABS(P18-$J18)+ABS(P19-$J19)+ABS(P20-$J20)+ABS(P21-$J21)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.5">
       <c r="B24" t="s">
         <v>2</v>
       </c>
@@ -1694,7 +1705,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.5">
       <c r="B25" t="s">
         <v>3</v>
       </c>
@@ -1711,62 +1722,62 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
         <v>6</v>
       </c>
       <c r="B26">
-        <f>INTERCEPT(B14:B20,B3:B9)</f>
-        <v>-2.6447466551469817E-3</v>
+        <f>INTERCEPT($A14:$A20,B14:B20)</f>
+        <v>-6.2879814800655609</v>
       </c>
       <c r="C26">
-        <f>INTERCEPT(C14:C20,C3:C9)</f>
-        <v>4.2978884569465636E-3</v>
+        <f t="shared" ref="C26:F26" si="3">INTERCEPT($A14:$A20,C14:C20)</f>
+        <v>-1.7623043822664393</v>
       </c>
       <c r="D26">
-        <f>INTERCEPT(D14:D20,D3:D9)</f>
-        <v>-1.3088308734627442E-2</v>
+        <f t="shared" si="3"/>
+        <v>-8.7671751498296544</v>
       </c>
       <c r="E26">
-        <f>INTERCEPT(E14:E20,E3:E9)</f>
-        <v>-4.4320826943833741E-3</v>
+        <f t="shared" si="3"/>
+        <v>-8.1733882321741866</v>
       </c>
       <c r="F26">
-        <f>INTERCEPT(F14:F20,F3:F9)</f>
-        <v>-1.1657263419977013E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>-10.970771331654497</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
         <v>7</v>
       </c>
       <c r="B27">
-        <f>SLOPE(B14:B20,B3:B9)</f>
-        <v>1.7374503606403907E-4</v>
+        <f>SLOPE($A14:$A20,B14:B20)</f>
+        <v>6506.8452302705327</v>
       </c>
       <c r="C27">
-        <f>SLOPE(C14:C20,C3:C9)</f>
-        <v>1.7166248771295178E-4</v>
+        <f t="shared" ref="C27:F27" si="4">SLOPE($A14:$A20,C14:C20)</f>
+        <v>4504.6725977436517</v>
       </c>
       <c r="D27">
-        <f>SLOPE(D14:D20,D3:D9)</f>
-        <v>2.3332954961562916E-4</v>
+        <f t="shared" si="4"/>
+        <v>7086.289028930938</v>
       </c>
       <c r="E27">
-        <f>SLOPE(E14:E20,E3:E9)</f>
-        <v>2.1317738261063452E-4</v>
+        <f t="shared" si="4"/>
+        <v>5736.8750184437049</v>
       </c>
       <c r="F27">
-        <f>SLOPE(F14:F20,F3:F9)</f>
-        <v>2.6490484268614807E-4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>6222.3754020320584</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.5">
       <c r="B30" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.5">
       <c r="B31" t="s">
         <v>2</v>
       </c>
@@ -1774,7 +1785,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -1794,186 +1805,186 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A33">
-        <f t="shared" ref="A33:A39" si="2">A3</f>
+        <f t="shared" ref="A33:A39" si="5">A3</f>
         <v>5</v>
       </c>
       <c r="B33">
-        <f t="shared" ref="B33:F39" si="3">(1/B$27)/(B3+(B$26/B$27))-B$13</f>
-        <v>5.0309877688865523</v>
+        <f>B$27/B3+B$26</f>
+        <v>4.7592939533309302</v>
       </c>
       <c r="C33">
-        <f t="shared" si="3"/>
-        <v>5.0492337886349112</v>
+        <f t="shared" ref="C33:F33" si="6">C$27/C3+C$26</f>
+        <v>5.9379906566115981</v>
       </c>
       <c r="D33">
-        <f t="shared" si="3"/>
-        <v>5.0390110733837474</v>
+        <f t="shared" si="6"/>
+        <v>3.9322675543476535</v>
       </c>
       <c r="E33">
-        <f t="shared" si="3"/>
-        <v>5.0580505829541806</v>
+        <f t="shared" si="6"/>
+        <v>4.7184657418566101</v>
       </c>
       <c r="F33">
-        <f t="shared" si="3"/>
-        <v>5.0132499979241274</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="6"/>
+        <v>3.8092177468064499</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="B34">
-        <f t="shared" si="3"/>
-        <v>9.9193580040096379</v>
+        <f t="shared" ref="B34:F39" si="7">B$27/B4+B$26</f>
+        <v>9.9385652288385096</v>
       </c>
       <c r="C34">
-        <f t="shared" si="3"/>
-        <v>9.846935472279517</v>
+        <f t="shared" si="7"/>
+        <v>10.060983275853381</v>
       </c>
       <c r="D34">
-        <f t="shared" si="3"/>
-        <v>9.8552481433410577</v>
+        <f t="shared" si="7"/>
+        <v>10.029347473329331</v>
       </c>
       <c r="E34">
-        <f t="shared" si="3"/>
-        <v>9.8365296165351275</v>
+        <f t="shared" si="7"/>
+        <v>9.9240093023485407</v>
       </c>
       <c r="F34">
-        <f t="shared" si="3"/>
-        <v>9.8622905413013946</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>9.9096830375805993</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="B35">
-        <f t="shared" si="3"/>
-        <v>14.725819233181646</v>
+        <f t="shared" si="7"/>
+        <v>14.906954123421517</v>
       </c>
       <c r="C35">
-        <f t="shared" si="3"/>
-        <v>14.915563360005461</v>
+        <f t="shared" si="7"/>
+        <v>14.618323245892295</v>
       </c>
       <c r="D35">
-        <f t="shared" si="3"/>
-        <v>14.822649176941603</v>
+        <f t="shared" si="7"/>
+        <v>15.668304260277029</v>
       </c>
       <c r="E35">
-        <f t="shared" si="3"/>
-        <v>14.829187705384218</v>
+        <f t="shared" si="7"/>
+        <v>15.147241924101035</v>
       </c>
       <c r="F35">
-        <f t="shared" si="3"/>
-        <v>15.080055130376824</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>15.849812297794031</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="B36">
-        <f t="shared" si="3"/>
-        <v>20.379710884580533</v>
+        <f t="shared" si="7"/>
+        <v>20.599808727663913</v>
       </c>
       <c r="C36">
-        <f t="shared" si="3"/>
-        <v>19.768708980869917</v>
+        <f t="shared" si="7"/>
+        <v>19.189661188634268</v>
       </c>
       <c r="D36">
-        <f t="shared" si="3"/>
-        <v>19.931576045323663</v>
+        <f t="shared" si="7"/>
+        <v>20.882569741094773</v>
       </c>
       <c r="E36">
-        <f t="shared" si="3"/>
-        <v>20.175684927599132</v>
+        <f t="shared" si="7"/>
+        <v>20.510986860044337</v>
       </c>
       <c r="F36">
-        <f t="shared" si="3"/>
-        <v>20.336101618273563</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>21.26951572550643</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="B37">
-        <f t="shared" si="3"/>
-        <v>25.168887749950635</v>
+        <f t="shared" si="7"/>
+        <v>25.298645851344791</v>
       </c>
       <c r="C37">
-        <f t="shared" si="3"/>
-        <v>25.215762324395172</v>
+        <f t="shared" si="7"/>
+        <v>24.580810224421583</v>
       </c>
       <c r="D37">
-        <f t="shared" si="3"/>
-        <v>25.476336120961911</v>
+        <f t="shared" si="7"/>
+        <v>25.969535776302394</v>
       </c>
       <c r="E37">
-        <f t="shared" si="3"/>
-        <v>24.818916080062394</v>
+        <f t="shared" si="7"/>
+        <v>24.987739042066881</v>
       </c>
       <c r="F37">
-        <f t="shared" si="3"/>
-        <v>25.943523290963913</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>26.513417837213325</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="B38">
-        <f t="shared" si="3"/>
-        <v>29.929177799123359</v>
+        <f t="shared" si="7"/>
+        <v>29.861158688104062</v>
       </c>
       <c r="C38">
-        <f t="shared" si="3"/>
-        <v>29.962215946156363</v>
+        <f t="shared" si="7"/>
+        <v>29.520144213175588</v>
       </c>
       <c r="D38">
-        <f t="shared" si="3"/>
-        <v>31.088898596560583</v>
+        <f t="shared" si="7"/>
+        <v>30.601097233120001</v>
       </c>
       <c r="E38">
-        <f t="shared" si="3"/>
-        <v>30.30485590122472</v>
+        <f t="shared" si="7"/>
+        <v>30.072445224117178</v>
       </c>
       <c r="F38">
-        <f t="shared" si="3"/>
-        <v>29.01014983005723</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>29.173586100810397</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
       <c r="B39">
-        <f t="shared" si="3"/>
-        <v>35.030881296513385</v>
+        <f t="shared" si="7"/>
+        <v>34.635573427296279</v>
       </c>
       <c r="C39">
-        <f t="shared" si="3"/>
-        <v>35.943708745958062</v>
+        <f t="shared" si="7"/>
+        <v>36.09208719541131</v>
       </c>
       <c r="D39">
-        <f t="shared" si="3"/>
-        <v>34.125507357819949</v>
+        <f t="shared" si="7"/>
+        <v>32.916877961528805</v>
       </c>
       <c r="E39">
-        <f t="shared" si="3"/>
-        <v>35.435857587443614</v>
+        <f t="shared" si="7"/>
+        <v>34.639111905465398</v>
       </c>
       <c r="F39">
-        <f t="shared" si="3"/>
-        <v>34.324538824695857</v>
+        <f t="shared" si="7"/>
+        <v>33.474767254288778</v>
       </c>
     </row>
   </sheetData>
@@ -1984,24 +1995,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{558F13F8-FE73-45A7-88B3-F428177E8C39}">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.64453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2009,263 +2021,358 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>5</v>
       </c>
       <c r="B3" s="1">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>586</v>
+      </c>
+      <c r="C3" s="1">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>530</v>
+      </c>
+      <c r="C4">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A5">
         <v>15</v>
       </c>
-      <c r="B4" s="1">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="B5" s="1">
+        <v>470</v>
+      </c>
+      <c r="C5" s="1">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A6">
         <v>25</v>
       </c>
-      <c r="B5" s="1">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="B6" s="1">
+        <v>350</v>
+      </c>
+      <c r="C6" s="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A7">
         <v>35</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B7" s="1">
         <v>270</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="C7" s="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A8">
         <v>45</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B8" s="1">
         <v>224</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="C8" s="1">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A9">
         <v>55</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B9" s="1">
         <v>196</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B12">
-        <v>30</v>
-      </c>
-      <c r="H12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C9" s="1">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B13">
-        <f t="shared" ref="B13:B18" si="0">1/($A3+B$12)</f>
-        <v>2.8571428571428571E-2</v>
+        <v>0</v>
       </c>
       <c r="H13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <f>1/($B3+B$13)</f>
+        <v>1.7064846416382253E-3</v>
+      </c>
+      <c r="H14" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B14">
-        <f t="shared" si="0"/>
-        <v>2.2222222222222223E-2</v>
-      </c>
-      <c r="G14">
-        <f t="shared" ref="G14:G19" si="1">A3</f>
-        <v>5</v>
-      </c>
-      <c r="H14">
-        <f t="shared" ref="H14:H19" si="2">ROUND(B31,0)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A15">
+        <v>10</v>
+      </c>
       <c r="B15">
-        <f t="shared" si="0"/>
-        <v>1.8181818181818181E-2</v>
+        <f t="shared" ref="B15:B20" si="0">1/($B4+B$13)</f>
+        <v>1.8867924528301887E-3</v>
       </c>
       <c r="G15">
-        <f t="shared" si="1"/>
+        <f>A3</f>
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <f t="shared" ref="H15:H20" si="1">ROUND(B32,0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="H15">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>1.5384615384615385E-2</v>
+        <v>2.1276595744680851E-3</v>
       </c>
       <c r="G16">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="G15:G20" si="2">A5</f>
+        <v>15</v>
+      </c>
+      <c r="H16">
+        <f>ROUND(B34,0)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A17">
         <v>25</v>
       </c>
-      <c r="H16">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>1.3333333333333334E-2</v>
+        <v>2.8571428571428571E-3</v>
       </c>
       <c r="G17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="H17">
+        <f>ROUND(B35,0)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A18">
         <v>35</v>
       </c>
-      <c r="H17">
-        <f t="shared" si="2"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>1.1764705882352941E-2</v>
+        <v>3.7037037037037038E-3</v>
       </c>
       <c r="G18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="H18">
+        <f>ROUND(B36,0)</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A19">
         <v>45</v>
       </c>
-      <c r="H18">
-        <f t="shared" si="2"/>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>4.464285714285714E-3</v>
+      </c>
       <c r="G19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="H19">
+        <f>ROUND(B37,0)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A20">
         <v>55</v>
       </c>
-      <c r="H19">
-        <f t="shared" si="2"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>5.1020408163265302E-3</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="H20">
+        <f>ROUND(B38,0)</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="B24" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A25" t="s">
         <v>6</v>
       </c>
-      <c r="B24">
-        <f>INTERCEPT(B13:B18,B3:B8)</f>
-        <v>3.4833968202797414E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="B25">
+        <f>INTERCEPT(A14:A16,B14:B16)</f>
+        <v>-34.967700857685628</v>
+      </c>
+      <c r="C25">
+        <f>INTERCEPT(A16:A20,B16:B20)</f>
+        <v>-13.223631890637058</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A26" t="s">
         <v>7</v>
       </c>
-      <c r="B25">
-        <f>SLOPE(B13:B18,B3:B8)</f>
-        <v>4.2926680879346674E-5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B26">
-        <v>4.2926680879346674E-5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
+        <f>SLOPE(A14:A16,B14:B16)</f>
+        <v>23580.597090954139</v>
+      </c>
+      <c r="C26">
+        <f>SLOPE(A16:A20,B16:B20)</f>
+        <v>13208.456295698532</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="B29" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A31" t="s">
         <v>0</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <f t="shared" ref="A31:A36" si="3">A3</f>
-        <v>5</v>
-      </c>
-      <c r="B31">
-        <f t="shared" ref="B31:B36" si="4">(1/B$25)/(B3+(B$24/B$25))-B$12</f>
-        <v>5.7212620737238709</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A32">
+        <f>A3</f>
+        <v>5</v>
+      </c>
+      <c r="B32">
+        <f>B$26/B3+B$25</f>
+        <v>5.2722259186866225</v>
+      </c>
+      <c r="C32">
+        <f>C$26/C3+C$25</f>
+        <v>9.3163959177222111</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A33">
+        <v>10</v>
+      </c>
+      <c r="B33">
+        <f t="shared" ref="B33:C38" si="3">B$26/B4+B$25</f>
+        <v>9.5239917667561471</v>
+      </c>
+      <c r="C33">
         <f t="shared" si="3"/>
+        <v>11.697983761624322</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A34">
+        <f>A5</f>
         <v>15</v>
       </c>
-      <c r="B32">
-        <f t="shared" si="4"/>
-        <v>13.288375502981907</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33">
+      <c r="B34">
         <f t="shared" si="3"/>
+        <v>15.203782314557223</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="3"/>
+        <v>14.879466610849178</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A35">
+        <f>A6</f>
         <v>25</v>
       </c>
-      <c r="B33">
-        <f t="shared" si="4"/>
-        <v>24.665415144274057</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34">
+      <c r="B35">
         <f t="shared" si="3"/>
+        <v>32.405433687897627</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="3"/>
+        <v>24.514814668501607</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A36">
+        <f>A7</f>
         <v>35</v>
       </c>
-      <c r="B34">
-        <f t="shared" si="4"/>
-        <v>36.341149849220088</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35">
+      <c r="B36">
         <f t="shared" si="3"/>
+        <v>52.367843923625998</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="3"/>
+        <v>35.6965766119501</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A37">
+        <f>A8</f>
         <v>45</v>
       </c>
-      <c r="B35">
-        <f t="shared" si="4"/>
-        <v>46.341860865996765</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36">
+      <c r="B37">
         <f t="shared" si="3"/>
+        <v>70.302821869788204</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="3"/>
+        <v>45.742690858017099</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A38">
+        <f>A9</f>
         <v>55</v>
       </c>
-      <c r="B36">
-        <f t="shared" si="4"/>
-        <v>54.054618110782258</v>
+      <c r="B38">
+        <f t="shared" si="3"/>
+        <v>85.341467973713037</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="3"/>
+        <v>54.16645125068198</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Sensor.xlsx
+++ b/Sensor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brabalawuka\src\CE3004-MDP-ARDUINO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bob\Documents\GitHub\CE3004-MDP-ARDUINO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{016D958A-8ADE-4BA0-92E8-B6DBAB885465}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B200030-3114-4B8F-BB2E-AD495CC870A2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10560" yWindow="313" windowWidth="19200" windowHeight="10520" activeTab="2" xr2:uid="{6602DABA-150B-41F0-8105-E6E9BFF209EE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{6602DABA-150B-41F0-8105-E6E9BFF209EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Calibration" sheetId="6" r:id="rId1"/>
@@ -25,9 +25,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -425,16 +423,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DE365FD-844F-40B5-B0D1-185FCF6C986C}">
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25:F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -442,7 +440,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -462,7 +460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -476,13 +474,13 @@
         <v>630</v>
       </c>
       <c r="E3" s="1">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="F3" s="1">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.5">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -496,15 +494,15 @@
         <v>611</v>
       </c>
       <c r="E4" s="1">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="F4" s="1">
-        <v>458</v>
+        <v>477</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -518,15 +516,15 @@
         <v>558</v>
       </c>
       <c r="E5" s="1">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F5" s="1">
-        <v>421</v>
+        <v>437</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -540,15 +538,15 @@
         <v>513</v>
       </c>
       <c r="E6" s="1">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="F6" s="1">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -562,15 +560,15 @@
         <v>471</v>
       </c>
       <c r="E7" s="1">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F7" s="1">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -579,11 +577,11 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="J11" t="s">
         <v>2</v>
       </c>
@@ -591,7 +589,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>0</v>
       </c>
@@ -623,7 +621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3</v>
       </c>
@@ -641,19 +639,19 @@
       </c>
       <c r="E14">
         <f>1/($E3+E$12)</f>
-        <v>1.8726591760299626E-3</v>
+        <v>1.8867924528301887E-3</v>
       </c>
       <c r="F14">
         <f>1/($F3+F$12)</f>
-        <v>2.004008016032064E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.5">
+        <v>1.9305019305019305E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>4</v>
       </c>
       <c r="B15">
-        <f t="shared" ref="B15:B19" si="0">1/($B4+B$12)</f>
+        <f t="shared" ref="B15:B18" si="0">1/($B4+B$12)</f>
         <v>1.6025641025641025E-3</v>
       </c>
       <c r="C15">
@@ -666,11 +664,11 @@
       </c>
       <c r="E15">
         <f t="shared" ref="E15:E18" si="3">1/($E4+E$12)</f>
-        <v>2.0366598778004071E-3</v>
+        <v>2.0618556701030928E-3</v>
       </c>
       <c r="F15">
         <f t="shared" ref="F15:F18" si="4">1/($F4+F$12)</f>
-        <v>2.1834061135371178E-3</v>
+        <v>2.0964360587002098E-3</v>
       </c>
       <c r="I15">
         <v>4</v>
@@ -689,14 +687,14 @@
       </c>
       <c r="M15">
         <f t="shared" si="5"/>
-        <v>3.9585647161544575</v>
+        <v>4.0152826469771803</v>
       </c>
       <c r="N15">
         <f t="shared" si="5"/>
-        <v>4.0030451290792204</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.5">
+        <v>3.9956796242903643</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>5</v>
       </c>
@@ -714,11 +712,11 @@
       </c>
       <c r="E16">
         <f t="shared" si="3"/>
-        <v>2.2471910112359553E-3</v>
+        <v>2.242152466367713E-3</v>
       </c>
       <c r="F16">
         <f t="shared" si="4"/>
-        <v>2.3752969121140144E-3</v>
+        <v>2.2883295194508009E-3</v>
       </c>
       <c r="I16">
         <v>5</v>
@@ -737,14 +735,14 @@
       </c>
       <c r="M16">
         <f t="shared" si="5"/>
-        <v>5.0971207667915603</v>
+        <v>4.9707213893822111</v>
       </c>
       <c r="N16">
         <f t="shared" si="5"/>
-        <v>4.9939643862839613</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.5">
+        <v>5.0087557528437276</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>6</v>
       </c>
@@ -762,11 +760,11 @@
       </c>
       <c r="E17">
         <f t="shared" si="3"/>
-        <v>2.403846153846154E-3</v>
+        <v>2.4390243902439024E-3</v>
       </c>
       <c r="F17">
         <f t="shared" si="4"/>
-        <v>2.5706940874035988E-3</v>
+        <v>2.4752475247524753E-3</v>
       </c>
       <c r="I17">
         <v>6</v>
@@ -785,14 +783,14 @@
       </c>
       <c r="M17">
         <f t="shared" si="5"/>
-        <v>5.9443145170539822</v>
+        <v>6.013995963640614</v>
       </c>
       <c r="N17">
         <f t="shared" si="5"/>
-        <v>6.0029904846368183</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.5">
+        <v>5.9955646228659099</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>7</v>
       </c>
@@ -810,11 +808,11 @@
       </c>
       <c r="E18">
         <f t="shared" si="3"/>
-        <v>2.6109660574412533E-3</v>
+        <v>2.5974025974025974E-3</v>
       </c>
       <c r="F18">
         <f t="shared" si="4"/>
-        <v>2.7548209366391185E-3</v>
+        <v>2.6455026455026454E-3</v>
       </c>
       <c r="I18">
         <v>7</v>
@@ -833,14 +831,14 @@
       </c>
       <c r="M18">
         <f t="shared" si="5"/>
-        <v>7.064422577070518</v>
+        <v>6.8532825078672506</v>
       </c>
       <c r="N18">
         <f t="shared" si="5"/>
-        <v>6.953816902729999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.5">
+        <v>6.894403999264183</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I19">
         <v>8</v>
       </c>
@@ -858,14 +856,14 @@
       </c>
       <c r="M19">
         <f t="shared" si="5"/>
-        <v>-0.14172882926401612</v>
+        <v>-0.14469650796900177</v>
       </c>
       <c r="N19">
         <f t="shared" si="5"/>
-        <v>-0.13751357888148585</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.5">
+        <v>-0.14139917435128274</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>2</v>
       </c>
@@ -873,7 +871,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>3</v>
       </c>
@@ -890,7 +888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -908,14 +906,14 @@
       </c>
       <c r="E25">
         <f t="shared" si="6"/>
-        <v>-7.0557275128349097</v>
+        <v>-6.9110168174495907</v>
       </c>
       <c r="F25">
         <f t="shared" si="6"/>
-        <v>-7.2720091218179697</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.5">
+        <v>-7.0721770801551234</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -933,28 +931,22 @@
       </c>
       <c r="E26">
         <f>SLOPE($A15:$A17,E15:E17)</f>
-        <v>5408.0174844337789</v>
+        <v>5299.2552402469837</v>
       </c>
       <c r="F26">
         <f t="shared" si="7"/>
-        <v>5163.9748469109127</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.5">
+        <v>5279.3676480204977</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
-      <c r="D27">
-        <v>8.7535014005602296E-5</v>
-      </c>
-      <c r="F27">
-        <v>2.3895532551367711E-5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.5">
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>2</v>
       </c>
@@ -962,7 +954,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -982,7 +974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <f>A4</f>
         <v>4</v>
@@ -1001,14 +993,14 @@
       </c>
       <c r="E36">
         <f t="shared" si="8"/>
-        <v>3.9585647161544575</v>
+        <v>4.0152826469771803</v>
       </c>
       <c r="F36">
         <f t="shared" si="8"/>
-        <v>4.0030451290792204</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.5">
+        <v>3.9956796242903643</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <f>A5</f>
         <v>5</v>
@@ -1027,14 +1019,14 @@
       </c>
       <c r="E37">
         <f t="shared" si="9"/>
-        <v>5.0971207667915603</v>
+        <v>4.9707213893822111</v>
       </c>
       <c r="F37">
         <f t="shared" si="9"/>
-        <v>4.9939643862839613</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.5">
+        <v>5.0087557528437276</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <f>A6</f>
         <v>6</v>
@@ -1053,14 +1045,14 @@
       </c>
       <c r="E38">
         <f t="shared" si="10"/>
-        <v>5.9443145170539822</v>
+        <v>6.013995963640614</v>
       </c>
       <c r="F38">
         <f t="shared" si="10"/>
-        <v>6.0029904846368183</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.5">
+        <v>5.9955646228659099</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <f>A7</f>
         <v>7</v>
@@ -1079,24 +1071,24 @@
       </c>
       <c r="E39">
         <f t="shared" si="11"/>
-        <v>7.064422577070518</v>
+        <v>6.8532825078672506</v>
       </c>
       <c r="F39">
         <f t="shared" si="11"/>
-        <v>6.953816902729999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.5">
+        <v>6.894403999264183</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <f>A8</f>
         <v>0</v>
       </c>
       <c r="B40" t="e">
-        <f t="shared" ref="B37:B40" si="12">B$26/B8+B$25</f>
+        <f t="shared" ref="B40" si="12">B$26/B8+B$25</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C40">
-        <f t="shared" ref="B36:F40" si="13">(1/C$26)/(C8+(C$25/C$26))-C$12</f>
+        <f t="shared" ref="C40:F40" si="13">(1/C$26)/(C8+(C$25/C$26))-C$12</f>
         <v>-0.13405934701514011</v>
       </c>
       <c r="D40">
@@ -1105,11 +1097,11 @@
       </c>
       <c r="E40">
         <f t="shared" si="13"/>
-        <v>-0.14172882926401612</v>
+        <v>-0.14469650796900177</v>
       </c>
       <c r="F40">
         <f t="shared" si="13"/>
-        <v>-0.13751357888148585</v>
+        <v>-0.14139917435128274</v>
       </c>
     </row>
   </sheetData>
@@ -1122,16 +1114,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBC94E3C-D284-4D19-92AB-A16814BB168E}">
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -1139,7 +1131,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1159,7 +1151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5</v>
       </c>
@@ -1179,7 +1171,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10</v>
       </c>
@@ -1199,7 +1191,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>15</v>
       </c>
@@ -1219,7 +1211,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>20</v>
       </c>
@@ -1239,7 +1231,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>25</v>
       </c>
@@ -1259,7 +1251,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>30</v>
       </c>
@@ -1279,7 +1271,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>35</v>
       </c>
@@ -1299,7 +1291,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>0</v>
       </c>
@@ -1322,7 +1314,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>5</v>
       </c>
@@ -1362,7 +1354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10</v>
       </c>
@@ -1410,7 +1402,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1458,7 +1450,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>20</v>
       </c>
@@ -1506,7 +1498,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>25</v>
       </c>
@@ -1554,7 +1546,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>30</v>
       </c>
@@ -1602,7 +1594,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>35</v>
       </c>
@@ -1650,7 +1642,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="J21">
         <v>35</v>
       </c>
@@ -1675,7 +1667,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="L23">
         <f>ABS(L15-$J15)+ABS(L16-$J16)+ABS(L17-$J17)+ABS(L18-$J18)+ABS(L19-$J19)+ABS(L20-$J20)+ABS(L21-$J21)</f>
         <v>1</v>
@@ -1697,7 +1689,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>2</v>
       </c>
@@ -1705,7 +1697,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>3</v>
       </c>
@@ -1722,7 +1714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -1747,7 +1739,7 @@
         <v>-10.970771331654497</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -1772,12 +1764,12 @@
         <v>6222.3754020320584</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>2</v>
       </c>
@@ -1785,7 +1777,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -1805,7 +1797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" ref="A33:A39" si="5">A3</f>
         <v>5</v>
@@ -1831,7 +1823,7 @@
         <v>3.8092177468064499</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="5"/>
         <v>10</v>
@@ -1857,7 +1849,7 @@
         <v>9.9096830375805993</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="5"/>
         <v>15</v>
@@ -1883,7 +1875,7 @@
         <v>15.849812297794031</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="5"/>
         <v>20</v>
@@ -1909,7 +1901,7 @@
         <v>21.26951572550643</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="5"/>
         <v>25</v>
@@ -1935,7 +1927,7 @@
         <v>26.513417837213325</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="5"/>
         <v>30</v>
@@ -1961,7 +1953,7 @@
         <v>29.173586100810397</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="5"/>
         <v>35</v>
@@ -1997,23 +1989,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{558F13F8-FE73-45A7-88B3-F428177E8C39}">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.64453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2021,7 +2013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5</v>
       </c>
@@ -2032,7 +2024,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10</v>
       </c>
@@ -2043,7 +2035,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>15</v>
       </c>
@@ -2054,7 +2046,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>25</v>
       </c>
@@ -2065,7 +2057,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>35</v>
       </c>
@@ -2076,29 +2068,29 @@
         <v>270</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>45</v>
       </c>
       <c r="B8" s="1">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="C8" s="1">
         <v>224</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>55</v>
       </c>
       <c r="B9" s="1">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C9" s="1">
         <v>196</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>0</v>
       </c>
@@ -2106,7 +2098,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>5</v>
       </c>
@@ -2118,7 +2110,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10</v>
       </c>
@@ -2131,11 +2123,11 @@
         <v>5</v>
       </c>
       <c r="H15">
-        <f t="shared" ref="H15:H20" si="1">ROUND(B32,0)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.5">
+        <f t="shared" ref="H15" si="1">ROUND(B32,0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2144,7 +2136,7 @@
         <v>2.1276595744680851E-3</v>
       </c>
       <c r="G16">
-        <f t="shared" ref="G15:G20" si="2">A5</f>
+        <f t="shared" ref="G16:G20" si="2">A5</f>
         <v>15</v>
       </c>
       <c r="H16">
@@ -2152,7 +2144,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>25</v>
       </c>
@@ -2166,10 +2158,10 @@
       </c>
       <c r="H17">
         <f>ROUND(B35,0)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>35</v>
       </c>
@@ -2183,16 +2175,16 @@
       </c>
       <c r="H18">
         <f>ROUND(B36,0)</f>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>45</v>
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>4.464285714285714E-3</v>
+        <v>4.329004329004329E-3</v>
       </c>
       <c r="G19">
         <f t="shared" si="2"/>
@@ -2200,16 +2192,16 @@
       </c>
       <c r="H19">
         <f>ROUND(B37,0)</f>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>55</v>
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>5.1020408163265302E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="G20">
         <f t="shared" si="2"/>
@@ -2217,20 +2209,20 @@
       </c>
       <c r="H20">
         <f>ROUND(B38,0)</f>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -2240,10 +2232,10 @@
       </c>
       <c r="C25">
         <f>INTERCEPT(A16:A20,B16:B20)</f>
-        <v>-13.223631890637058</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.5">
+        <v>-14.800848533965095</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -2253,20 +2245,20 @@
       </c>
       <c r="C26">
         <f>SLOPE(A16:A20,B16:B20)</f>
-        <v>13208.456295698532</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.5">
+        <v>13820.124770452703</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -2274,7 +2266,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <f>A3</f>
         <v>5</v>
@@ -2285,10 +2277,10 @@
       </c>
       <c r="C32">
         <f>C$26/C3+C$25</f>
-        <v>9.3163959177222111</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.5">
+        <v>8.7829821323364463</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>10</v>
       </c>
@@ -2298,10 +2290,10 @@
       </c>
       <c r="C33">
         <f t="shared" si="3"/>
-        <v>11.697983761624322</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.5">
+        <v>11.274858580096609</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <f>A5</f>
         <v>15</v>
@@ -2312,63 +2304,63 @@
       </c>
       <c r="C34">
         <f t="shared" si="3"/>
-        <v>14.879466610849178</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.5">
+        <v>14.603672254232148</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <f>A6</f>
         <v>25</v>
       </c>
       <c r="B35">
-        <f t="shared" si="3"/>
-        <v>32.405433687897627</v>
+        <f>C$26/B6+C$25</f>
+        <v>24.685222238756914</v>
       </c>
       <c r="C35">
-        <f t="shared" si="3"/>
-        <v>24.514814668501607</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.5">
+        <f>C$26/C6+C$25</f>
+        <v>24.685222238756914</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <f>A7</f>
         <v>35</v>
       </c>
       <c r="B36">
-        <f t="shared" si="3"/>
-        <v>52.367843923625998</v>
+        <f t="shared" ref="B36:B38" si="4">C$26/B7+C$25</f>
+        <v>36.384798764007883</v>
       </c>
       <c r="C36">
-        <f t="shared" si="3"/>
-        <v>35.6965766119501</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.5">
+        <f t="shared" ref="C36:C38" si="5">C$26/C7+C$25</f>
+        <v>36.384798764007883</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <f>A8</f>
         <v>45</v>
       </c>
       <c r="B37">
-        <f t="shared" si="3"/>
-        <v>70.302821869788204</v>
+        <f t="shared" si="4"/>
+        <v>45.026531424704615</v>
       </c>
       <c r="C37">
-        <f t="shared" si="3"/>
-        <v>45.742690858017099</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.5">
+        <f t="shared" si="5"/>
+        <v>46.896137048413046</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <f>A9</f>
         <v>55</v>
       </c>
       <c r="B38">
-        <f t="shared" si="3"/>
-        <v>85.341467973713037</v>
+        <f t="shared" si="4"/>
+        <v>54.299775318298416</v>
       </c>
       <c r="C38">
-        <f t="shared" si="3"/>
-        <v>54.16645125068198</v>
+        <f t="shared" si="5"/>
+        <v>55.709992131609923</v>
       </c>
     </row>
   </sheetData>

--- a/Sensor.xlsx
+++ b/Sensor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bob\Documents\GitHub\CE3004-MDP-ARDUINO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B200030-3114-4B8F-BB2E-AD495CC870A2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C9CC87-DF69-4947-B697-18280E5714BD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{6602DABA-150B-41F0-8105-E6E9BFF209EE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6602DABA-150B-41F0-8105-E6E9BFF209EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Calibration" sheetId="6" r:id="rId1"/>
@@ -423,8 +423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DE365FD-844F-40B5-B0D1-185FCF6C986C}">
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25:F26"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,7 +494,7 @@
         <v>611</v>
       </c>
       <c r="E4" s="1">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="F4" s="1">
         <v>477</v>
@@ -519,7 +519,7 @@
         <v>446</v>
       </c>
       <c r="F5" s="1">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -664,7 +664,7 @@
       </c>
       <c r="E15">
         <f t="shared" ref="E15:E18" si="3">1/($E4+E$12)</f>
-        <v>2.0618556701030928E-3</v>
+        <v>2.0920502092050207E-3</v>
       </c>
       <c r="F15">
         <f t="shared" ref="F15:F18" si="4">1/($F4+F$12)</f>
@@ -687,11 +687,11 @@
       </c>
       <c r="M15">
         <f t="shared" si="5"/>
-        <v>4.0152826469771803</v>
+        <v>4.0506804151699516</v>
       </c>
       <c r="N15">
         <f t="shared" si="5"/>
-        <v>3.9956796242903643</v>
+        <v>4.0246388168419749</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -716,7 +716,7 @@
       </c>
       <c r="F16">
         <f t="shared" si="4"/>
-        <v>2.2883295194508009E-3</v>
+        <v>2.2727272727272726E-3</v>
       </c>
       <c r="I16">
         <v>5</v>
@@ -735,11 +735,11 @@
       </c>
       <c r="M16">
         <f t="shared" si="5"/>
-        <v>4.9707213893822111</v>
+        <v>4.9106790079454683</v>
       </c>
       <c r="N16">
         <f t="shared" si="5"/>
-        <v>5.0087557528437276</v>
+        <v>4.9539134173675663</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -783,11 +783,11 @@
       </c>
       <c r="M17">
         <f t="shared" si="5"/>
-        <v>6.013995963640614</v>
+        <v>6.0386405768845748</v>
       </c>
       <c r="N17">
         <f t="shared" si="5"/>
-        <v>5.9955646228659099</v>
+        <v>6.0214477657904641</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -831,11 +831,11 @@
       </c>
       <c r="M18">
         <f t="shared" si="5"/>
-        <v>6.8532825078672506</v>
+        <v>6.9460555475679104</v>
       </c>
       <c r="N18">
         <f t="shared" si="5"/>
-        <v>6.894403999264183</v>
+        <v>6.9189046254287607</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -856,11 +856,11 @@
       </c>
       <c r="M19">
         <f t="shared" si="5"/>
-        <v>-0.14469650796900177</v>
+        <v>-0.1260152104862225</v>
       </c>
       <c r="N19">
         <f t="shared" si="5"/>
-        <v>-0.14139917435128274</v>
+        <v>-0.14232455885828327</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -906,11 +906,11 @@
       </c>
       <c r="E25">
         <f t="shared" si="6"/>
-        <v>-6.9110168174495907</v>
+        <v>-7.9355499716387978</v>
       </c>
       <c r="F25">
         <f t="shared" si="6"/>
-        <v>-7.0721770801551234</v>
+        <v>-7.0261942704893912</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -931,11 +931,11 @@
       </c>
       <c r="E26">
         <f>SLOPE($A15:$A17,E15:E17)</f>
-        <v>5299.2552402469837</v>
+        <v>5729.4181248945824</v>
       </c>
       <c r="F26">
         <f t="shared" si="7"/>
-        <v>5279.3676480204977</v>
+        <v>5271.2473826570613</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -993,11 +993,11 @@
       </c>
       <c r="E36">
         <f t="shared" si="8"/>
-        <v>4.0152826469771803</v>
+        <v>4.0506804151699516</v>
       </c>
       <c r="F36">
         <f t="shared" si="8"/>
-        <v>3.9956796242903643</v>
+        <v>4.0246388168419749</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1019,11 +1019,11 @@
       </c>
       <c r="E37">
         <f t="shared" si="9"/>
-        <v>4.9707213893822111</v>
+        <v>4.9106790079454683</v>
       </c>
       <c r="F37">
         <f t="shared" si="9"/>
-        <v>5.0087557528437276</v>
+        <v>4.9539134173675663</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1045,11 +1045,11 @@
       </c>
       <c r="E38">
         <f t="shared" si="10"/>
-        <v>6.013995963640614</v>
+        <v>6.0386405768845748</v>
       </c>
       <c r="F38">
         <f t="shared" si="10"/>
-        <v>5.9955646228659099</v>
+        <v>6.0214477657904641</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1071,11 +1071,11 @@
       </c>
       <c r="E39">
         <f t="shared" si="11"/>
-        <v>6.8532825078672506</v>
+        <v>6.9460555475679104</v>
       </c>
       <c r="F39">
         <f t="shared" si="11"/>
-        <v>6.894403999264183</v>
+        <v>6.9189046254287607</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1097,11 +1097,11 @@
       </c>
       <c r="E40">
         <f t="shared" si="13"/>
-        <v>-0.14469650796900177</v>
+        <v>-0.1260152104862225</v>
       </c>
       <c r="F40">
         <f t="shared" si="13"/>
-        <v>-0.14139917435128274</v>
+        <v>-0.14232455885828327</v>
       </c>
     </row>
   </sheetData>
@@ -1114,7 +1114,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBC94E3C-D284-4D19-92AB-A16814BB168E}">
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
@@ -1989,8 +1989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{558F13F8-FE73-45A7-88B3-F428177E8C39}">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2018,10 +2018,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="1">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="C3" s="1">
-        <v>586</v>
+        <v>580</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -2029,10 +2029,10 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="C4">
-        <v>530</v>
+        <v>525</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2051,10 +2051,10 @@
         <v>25</v>
       </c>
       <c r="B6" s="1">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="C6" s="1">
-        <v>350</v>
+        <v>360</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -2062,10 +2062,10 @@
         <v>35</v>
       </c>
       <c r="B7" s="1">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="C7" s="1">
-        <v>270</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2073,10 +2073,10 @@
         <v>45</v>
       </c>
       <c r="B8" s="1">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C8" s="1">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -2084,10 +2084,10 @@
         <v>55</v>
       </c>
       <c r="B9" s="1">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C9" s="1">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B14">
         <f>1/($B3+B$13)</f>
-        <v>1.7064846416382253E-3</v>
+        <v>1.7241379310344827E-3</v>
       </c>
       <c r="H14" t="s">
         <v>2</v>
@@ -2116,7 +2116,7 @@
       </c>
       <c r="B15">
         <f t="shared" ref="B15:B20" si="0">1/($B4+B$13)</f>
-        <v>1.8867924528301887E-3</v>
+        <v>1.9047619047619048E-3</v>
       </c>
       <c r="G15">
         <f>A3</f>
@@ -2150,7 +2150,7 @@
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>2.8571428571428571E-3</v>
+        <v>2.7777777777777779E-3</v>
       </c>
       <c r="G17">
         <f t="shared" si="2"/>
@@ -2158,7 +2158,7 @@
       </c>
       <c r="H17">
         <f>ROUND(B35,0)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -2167,7 +2167,7 @@
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>3.7037037037037038E-3</v>
+        <v>3.5714285714285713E-3</v>
       </c>
       <c r="G18">
         <f t="shared" si="2"/>
@@ -2175,7 +2175,7 @@
       </c>
       <c r="H18">
         <f>ROUND(B36,0)</f>
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>4.329004329004329E-3</v>
+        <v>4.3478260869565218E-3</v>
       </c>
       <c r="G19">
         <f t="shared" si="2"/>
@@ -2201,7 +2201,7 @@
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>5.0000000000000001E-3</v>
+        <v>5.0505050505050509E-3</v>
       </c>
       <c r="G20">
         <f t="shared" si="2"/>
@@ -2209,7 +2209,7 @@
       </c>
       <c r="H20">
         <f>ROUND(B38,0)</f>
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -2228,11 +2228,11 @@
       </c>
       <c r="B25">
         <f>INTERCEPT(A14:A16,B14:B16)</f>
-        <v>-34.967700857685628</v>
+        <v>-37.379339241310554</v>
       </c>
       <c r="C25">
         <f>INTERCEPT(A16:A20,B16:B20)</f>
-        <v>-14.800848533965095</v>
+        <v>-13.16128093549181</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -2241,11 +2241,11 @@
       </c>
       <c r="B26">
         <f>SLOPE(A14:A16,B14:B16)</f>
-        <v>23580.597090954139</v>
+        <v>24691.488021557903</v>
       </c>
       <c r="C26">
         <f>SLOPE(A16:A20,B16:B20)</f>
-        <v>13820.124770452703</v>
+        <v>13471.538459344698</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -2273,11 +2273,11 @@
       </c>
       <c r="B32">
         <f>B$26/B3+B$25</f>
-        <v>5.2722259186866225</v>
+        <v>5.1921918303410024</v>
       </c>
       <c r="C32">
         <f>C$26/C3+C$25</f>
-        <v>8.7829821323364463</v>
+        <v>10.06550951165422</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -2285,12 +2285,12 @@
         <v>10</v>
       </c>
       <c r="B33">
-        <f t="shared" ref="B33:C38" si="3">B$26/B4+B$25</f>
-        <v>9.5239917667561471</v>
+        <f t="shared" ref="B33:C34" si="3">B$26/B4+B$25</f>
+        <v>9.6520665140378341</v>
       </c>
       <c r="C33">
         <f t="shared" si="3"/>
-        <v>11.274858580096609</v>
+        <v>12.498792320402853</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -2300,11 +2300,11 @@
       </c>
       <c r="B34">
         <f t="shared" si="3"/>
-        <v>15.203782314557223</v>
+        <v>15.155741655621156</v>
       </c>
       <c r="C34">
         <f t="shared" si="3"/>
-        <v>14.603672254232148</v>
+        <v>15.501566850347974</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -2313,12 +2313,12 @@
         <v>25</v>
       </c>
       <c r="B35">
-        <f>C$26/B6+C$25</f>
-        <v>24.685222238756914</v>
+        <f>C$26/346+C$25</f>
+        <v>25.773801316949516</v>
       </c>
       <c r="C35">
         <f>C$26/C6+C$25</f>
-        <v>24.685222238756914</v>
+        <v>24.259659229354575</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -2328,11 +2328,11 @@
       </c>
       <c r="B36">
         <f t="shared" ref="B36:B38" si="4">C$26/B7+C$25</f>
-        <v>36.384798764007883</v>
+        <v>34.951356419310684</v>
       </c>
       <c r="C36">
         <f t="shared" ref="C36:C38" si="5">C$26/C7+C$25</f>
-        <v>36.384798764007883</v>
+        <v>34.951356419310684</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -2342,11 +2342,11 @@
       </c>
       <c r="B37">
         <f t="shared" si="4"/>
-        <v>45.026531424704615</v>
+        <v>45.410625409485135</v>
       </c>
       <c r="C37">
         <f t="shared" si="5"/>
-        <v>46.896137048413046</v>
+        <v>45.410625409485135</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -2356,11 +2356,11 @@
       </c>
       <c r="B38">
         <f t="shared" si="4"/>
-        <v>54.299775318298416</v>
+        <v>54.876792091501621</v>
       </c>
       <c r="C38">
         <f t="shared" si="5"/>
-        <v>55.709992131609923</v>
+        <v>54.876792091501621</v>
       </c>
     </row>
   </sheetData>

--- a/Sensor.xlsx
+++ b/Sensor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bob\Documents\GitHub\CE3004-MDP-ARDUINO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C9CC87-DF69-4947-B697-18280E5714BD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A9D1688-34B5-4C14-8CA9-8B439BD61E49}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6602DABA-150B-41F0-8105-E6E9BFF209EE}"/>
   </bookViews>
@@ -424,7 +424,7 @@
   <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E26" sqref="E25:F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,12 +473,8 @@
       <c r="D3" s="1">
         <v>630</v>
       </c>
-      <c r="E3" s="1">
-        <v>530</v>
-      </c>
-      <c r="F3" s="1">
-        <v>518</v>
-      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -494,10 +490,10 @@
         <v>611</v>
       </c>
       <c r="E4" s="1">
-        <v>478</v>
+        <v>524</v>
       </c>
       <c r="F4" s="1">
-        <v>477</v>
+        <v>528</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -516,10 +512,10 @@
         <v>558</v>
       </c>
       <c r="E5" s="1">
-        <v>446</v>
+        <v>480</v>
       </c>
       <c r="F5" s="1">
-        <v>440</v>
+        <v>483</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -538,10 +534,10 @@
         <v>513</v>
       </c>
       <c r="E6" s="1">
-        <v>410</v>
+        <v>443</v>
       </c>
       <c r="F6" s="1">
-        <v>404</v>
+        <v>446</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -559,12 +555,8 @@
       <c r="D7" s="1">
         <v>471</v>
       </c>
-      <c r="E7" s="1">
-        <v>385</v>
-      </c>
-      <c r="F7" s="1">
-        <v>378</v>
-      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
@@ -637,13 +629,13 @@
         <f>1/($D3+D$12)</f>
         <v>1.5873015873015873E-3</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="e">
         <f>1/($E3+E$12)</f>
-        <v>1.8867924528301887E-3</v>
-      </c>
-      <c r="F14">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F14" t="e">
         <f>1/($F3+F$12)</f>
-        <v>1.9305019305019305E-3</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -664,11 +656,11 @@
       </c>
       <c r="E15">
         <f t="shared" ref="E15:E18" si="3">1/($E4+E$12)</f>
-        <v>2.0920502092050207E-3</v>
+        <v>1.9083969465648854E-3</v>
       </c>
       <c r="F15">
         <f t="shared" ref="F15:F18" si="4">1/($F4+F$12)</f>
-        <v>2.0964360587002098E-3</v>
+        <v>1.893939393939394E-3</v>
       </c>
       <c r="I15">
         <v>4</v>
@@ -687,11 +679,11 @@
       </c>
       <c r="M15">
         <f t="shared" si="5"/>
-        <v>4.0506804151699516</v>
+        <v>3.999110754772623</v>
       </c>
       <c r="N15">
         <f t="shared" si="5"/>
-        <v>4.0246388168419749</v>
+        <v>3.9955665954477944</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -712,11 +704,11 @@
       </c>
       <c r="E16">
         <f t="shared" si="3"/>
-        <v>2.242152466367713E-3</v>
+        <v>2.0833333333333333E-3</v>
       </c>
       <c r="F16">
         <f t="shared" si="4"/>
-        <v>2.2727272727272726E-3</v>
+        <v>2.070393374741201E-3</v>
       </c>
       <c r="I16">
         <v>5</v>
@@ -735,11 +727,11 @@
       </c>
       <c r="M16">
         <f t="shared" si="5"/>
-        <v>4.9106790079454683</v>
+        <v>5.0017832604931058</v>
       </c>
       <c r="N16">
         <f t="shared" si="5"/>
-        <v>4.9539134173675663</v>
+        <v>5.0089879924597973</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -760,11 +752,11 @@
       </c>
       <c r="E17">
         <f t="shared" si="3"/>
-        <v>2.4390243902439024E-3</v>
+        <v>2.257336343115124E-3</v>
       </c>
       <c r="F17">
         <f t="shared" si="4"/>
-        <v>2.4752475247524753E-3</v>
+        <v>2.242152466367713E-3</v>
       </c>
       <c r="I17">
         <v>6</v>
@@ -783,11 +775,11 @@
       </c>
       <c r="M17">
         <f t="shared" si="5"/>
-        <v>6.0386405768845748</v>
+        <v>5.9991059847342676</v>
       </c>
       <c r="N17">
         <f t="shared" si="5"/>
-        <v>6.0214477657904641</v>
+        <v>5.9954454120924066</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -806,13 +798,13 @@
         <f t="shared" si="2"/>
         <v>2.1231422505307855E-3</v>
       </c>
-      <c r="E18">
+      <c r="E18" t="e">
         <f t="shared" si="3"/>
-        <v>2.5974025974025974E-3</v>
-      </c>
-      <c r="F18">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F18" t="e">
         <f t="shared" si="4"/>
-        <v>2.6455026455026454E-3</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I18">
         <v>7</v>
@@ -829,13 +821,13 @@
         <f t="shared" si="5"/>
         <v>7.1137631268061661</v>
       </c>
-      <c r="M18">
-        <f t="shared" si="5"/>
-        <v>6.9460555475679104</v>
-      </c>
-      <c r="N18">
-        <f t="shared" si="5"/>
-        <v>6.9189046254287607</v>
+      <c r="M18" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N18" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -856,11 +848,11 @@
       </c>
       <c r="M19">
         <f t="shared" si="5"/>
-        <v>-0.1260152104862225</v>
+        <v>-0.14411018581891805</v>
       </c>
       <c r="N19">
         <f t="shared" si="5"/>
-        <v>-0.14232455885828327</v>
+        <v>-0.14531033280520192</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -905,12 +897,12 @@
         <v>-6.4674028005945168</v>
       </c>
       <c r="E25">
-        <f t="shared" si="6"/>
-        <v>-7.9355499716387978</v>
+        <f>INTERCEPT($A15:$A17,E15:E17)</f>
+        <v>-6.9391347621781012</v>
       </c>
       <c r="F25">
         <f t="shared" si="6"/>
-        <v>-7.0261942704893912</v>
+        <v>-6.8818230658143626</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -931,11 +923,11 @@
       </c>
       <c r="E26">
         <f>SLOPE($A15:$A17,E15:E17)</f>
-        <v>5729.4181248945824</v>
+        <v>5731.6406508821792</v>
       </c>
       <c r="F26">
         <f t="shared" si="7"/>
-        <v>5271.2473826570613</v>
+        <v>5743.2617411464189</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -993,11 +985,11 @@
       </c>
       <c r="E36">
         <f t="shared" si="8"/>
-        <v>4.0506804151699516</v>
+        <v>3.999110754772623</v>
       </c>
       <c r="F36">
         <f t="shared" si="8"/>
-        <v>4.0246388168419749</v>
+        <v>3.9955665954477944</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1019,11 +1011,11 @@
       </c>
       <c r="E37">
         <f t="shared" si="9"/>
-        <v>4.9106790079454683</v>
+        <v>5.0017832604931058</v>
       </c>
       <c r="F37">
         <f t="shared" si="9"/>
-        <v>4.9539134173675663</v>
+        <v>5.0089879924597973</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1045,11 +1037,11 @@
       </c>
       <c r="E38">
         <f t="shared" si="10"/>
-        <v>6.0386405768845748</v>
+        <v>5.9991059847342676</v>
       </c>
       <c r="F38">
         <f t="shared" si="10"/>
-        <v>6.0214477657904641</v>
+        <v>5.9954454120924066</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1069,13 +1061,13 @@
         <f t="shared" si="11"/>
         <v>7.1137631268061661</v>
       </c>
-      <c r="E39">
+      <c r="E39" t="e">
         <f t="shared" si="11"/>
-        <v>6.9460555475679104</v>
-      </c>
-      <c r="F39">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F39" t="e">
         <f t="shared" si="11"/>
-        <v>6.9189046254287607</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1097,11 +1089,11 @@
       </c>
       <c r="E40">
         <f t="shared" si="13"/>
-        <v>-0.1260152104862225</v>
+        <v>-0.14411018581891805</v>
       </c>
       <c r="F40">
         <f t="shared" si="13"/>
-        <v>-0.14232455885828327</v>
+        <v>-0.14531033280520192</v>
       </c>
     </row>
   </sheetData>
@@ -1114,8 +1106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBC94E3C-D284-4D19-92AB-A16814BB168E}">
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1165,10 +1157,10 @@
         <v>558</v>
       </c>
       <c r="E3" s="1">
-        <v>445</v>
+        <v>480</v>
       </c>
       <c r="F3" s="1">
-        <v>421</v>
+        <v>483</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -1185,10 +1177,10 @@
         <v>377</v>
       </c>
       <c r="E4" s="1">
-        <v>317</v>
+        <v>337</v>
       </c>
       <c r="F4" s="1">
-        <v>298</v>
+        <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -1205,10 +1197,10 @@
         <v>290</v>
       </c>
       <c r="E5" s="1">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="F5" s="1">
-        <v>232</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -1225,10 +1217,10 @@
         <v>239</v>
       </c>
       <c r="E6" s="1">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="F6" s="1">
-        <v>193</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -1245,10 +1237,10 @@
         <v>204</v>
       </c>
       <c r="E7" s="1">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="F7" s="1">
-        <v>166</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -1265,10 +1257,10 @@
         <v>180</v>
       </c>
       <c r="E8" s="1">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="F8" s="1">
-        <v>155</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -1285,10 +1277,10 @@
         <v>170</v>
       </c>
       <c r="E9" s="1">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="F9" s="1">
-        <v>140</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -1332,11 +1324,11 @@
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>2.2471910112359553E-3</v>
+        <v>2.0833333333333333E-3</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
-        <v>2.3752969121140144E-3</v>
+        <v>2.070393374741201E-3</v>
       </c>
       <c r="L14" t="s">
         <v>3</v>
@@ -1372,11 +1364,11 @@
       </c>
       <c r="E15">
         <f t="shared" si="1"/>
-        <v>3.1545741324921135E-3</v>
+        <v>2.967359050445104E-3</v>
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
-        <v>3.3557046979865771E-3</v>
+        <v>2.976190476190476E-3</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -1395,7 +1387,7 @@
       </c>
       <c r="O15">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P15">
         <f t="shared" si="2"/>
@@ -1420,11 +1412,11 @@
       </c>
       <c r="E16">
         <f t="shared" si="1"/>
-        <v>4.0650406504065045E-3</v>
+        <v>3.8610038610038611E-3</v>
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
-        <v>4.3103448275862068E-3</v>
+        <v>3.7735849056603774E-3</v>
       </c>
       <c r="J16">
         <v>10</v>
@@ -1468,11 +1460,11 @@
       </c>
       <c r="E17">
         <f t="shared" si="1"/>
-        <v>5.0000000000000001E-3</v>
+        <v>4.6511627906976744E-3</v>
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
-        <v>5.1813471502590676E-3</v>
+        <v>4.5871559633027525E-3</v>
       </c>
       <c r="J17">
         <v>15</v>
@@ -1491,11 +1483,11 @@
       </c>
       <c r="O17">
         <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="2"/>
         <v>15</v>
-      </c>
-      <c r="P17">
-        <f t="shared" si="2"/>
-        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -1516,11 +1508,11 @@
       </c>
       <c r="E18">
         <f t="shared" si="1"/>
-        <v>5.7803468208092483E-3</v>
+        <v>5.3475935828877002E-3</v>
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
-        <v>6.024096385542169E-3</v>
+        <v>5.3763440860215058E-3</v>
       </c>
       <c r="J18">
         <v>20</v>
@@ -1539,7 +1531,7 @@
       </c>
       <c r="O18">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P18">
         <f t="shared" si="2"/>
@@ -1564,11 +1556,11 @@
       </c>
       <c r="E19">
         <f t="shared" si="1"/>
-        <v>6.6666666666666671E-3</v>
+        <v>5.8823529411764705E-3</v>
       </c>
       <c r="F19">
         <f t="shared" si="1"/>
-        <v>6.4516129032258064E-3</v>
+        <v>6.0975609756097563E-3</v>
       </c>
       <c r="J19">
         <v>25</v>
@@ -1587,11 +1579,11 @@
       </c>
       <c r="O19">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="P19">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
@@ -1612,11 +1604,11 @@
       </c>
       <c r="E20">
         <f t="shared" si="1"/>
-        <v>7.462686567164179E-3</v>
+        <v>6.0606060606060606E-3</v>
       </c>
       <c r="F20">
         <f t="shared" si="1"/>
-        <v>7.1428571428571426E-3</v>
+        <v>6.3291139240506328E-3</v>
       </c>
       <c r="J20">
         <v>30</v>
@@ -1639,7 +1631,7 @@
       </c>
       <c r="P20">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
@@ -1660,7 +1652,7 @@
       </c>
       <c r="O21">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="P21">
         <f t="shared" si="2"/>
@@ -1682,11 +1674,11 @@
       </c>
       <c r="O23">
         <f>ABS(O15-$J15)+ABS(O16-$J16)+ABS(O17-$J17)+ABS(O18-$J18)+ABS(O19-$J19)+ABS(O20-$J20)+ABS(O21-$J21)</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="P23">
         <f>ABS(P15-$J15)+ABS(P16-$J16)+ABS(P17-$J17)+ABS(P18-$J18)+ABS(P19-$J19)+ABS(P20-$J20)+ABS(P21-$J21)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
@@ -1732,11 +1724,11 @@
       </c>
       <c r="E26">
         <f t="shared" si="3"/>
-        <v>-8.1733882321741866</v>
+        <v>-11.132703522224098</v>
       </c>
       <c r="F26">
         <f t="shared" si="3"/>
-        <v>-10.970771331654497</v>
+        <v>-9.8246735873439448</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
@@ -1757,11 +1749,11 @@
       </c>
       <c r="E27">
         <f t="shared" si="4"/>
-        <v>5736.8750184437049</v>
+        <v>7063.3655473367626</v>
       </c>
       <c r="F27">
         <f t="shared" si="4"/>
-        <v>6222.3754020320584</v>
+        <v>6689.2155075531527</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
@@ -1816,11 +1808,11 @@
       </c>
       <c r="E33">
         <f t="shared" si="6"/>
-        <v>4.7184657418566101</v>
+        <v>3.5826413680608233</v>
       </c>
       <c r="F33">
         <f t="shared" si="6"/>
-        <v>3.8092177468064499</v>
+        <v>4.0246338817102014</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1842,11 +1834,11 @@
       </c>
       <c r="E34">
         <f t="shared" si="7"/>
-        <v>9.9240093023485407</v>
+        <v>9.82683816126778</v>
       </c>
       <c r="F34">
         <f t="shared" si="7"/>
-        <v>9.9096830375805993</v>
+        <v>10.083705899421389</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1868,11 +1860,11 @@
       </c>
       <c r="E35">
         <f t="shared" si="7"/>
-        <v>15.147241924101035</v>
+        <v>16.138978127724791</v>
       </c>
       <c r="F35">
         <f t="shared" si="7"/>
-        <v>15.849812297794031</v>
+        <v>15.417649082667953</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1894,11 +1886,11 @@
       </c>
       <c r="E36">
         <f t="shared" si="7"/>
-        <v>20.510986860044337</v>
+        <v>21.720159488644562</v>
       </c>
       <c r="F36">
         <f t="shared" si="7"/>
-        <v>21.26951572550643</v>
+        <v>20.859801217945748</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1920,11 +1912,11 @@
       </c>
       <c r="E37">
         <f t="shared" si="7"/>
-        <v>24.987739042066881</v>
+        <v>26.639304752304042</v>
       </c>
       <c r="F37">
         <f t="shared" si="7"/>
-        <v>26.513417837213325</v>
+        <v>26.138850646812791</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1946,11 +1938,11 @@
       </c>
       <c r="E38">
         <f t="shared" si="7"/>
-        <v>30.072445224117178</v>
+        <v>30.416505579756858</v>
       </c>
       <c r="F38">
         <f t="shared" si="7"/>
-        <v>29.173586100810397</v>
+        <v>30.963225848955766</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1972,11 +1964,11 @@
       </c>
       <c r="E39">
         <f t="shared" si="7"/>
-        <v>34.639111905465398</v>
+        <v>31.675572522241133</v>
       </c>
       <c r="F39">
         <f t="shared" si="7"/>
-        <v>33.474767254288778</v>
+        <v>32.512133422486137</v>
       </c>
     </row>
   </sheetData>

--- a/Sensor.xlsx
+++ b/Sensor.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bob\Documents\GitHub\CE3004-MDP-ARDUINO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Limzui\Documents\GitHub\CE3004-MDP-ARDUINO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B200030-3114-4B8F-BB2E-AD495CC870A2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2173A28-A3D5-4136-B440-EA0D6FE64454}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{6602DABA-150B-41F0-8105-E6E9BFF209EE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{6602DABA-150B-41F0-8105-E6E9BFF209EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Calibration" sheetId="6" r:id="rId1"/>
@@ -427,12 +427,12 @@
       <selection activeCell="E25" sqref="E25:F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -440,7 +440,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -460,7 +460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -480,7 +480,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -502,7 +502,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -524,7 +524,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -546,7 +546,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -568,7 +568,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -577,11 +577,11 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="J11" t="s">
         <v>2</v>
       </c>
@@ -589,7 +589,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>0</v>
       </c>
@@ -621,7 +621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3</v>
       </c>
@@ -646,7 +646,7 @@
         <v>1.9305019305019305E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>4</v>
       </c>
@@ -694,7 +694,7 @@
         <v>3.9956796242903643</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>5</v>
       </c>
@@ -742,7 +742,7 @@
         <v>5.0087557528437276</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>6</v>
       </c>
@@ -790,7 +790,7 @@
         <v>5.9955646228659099</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>7</v>
       </c>
@@ -838,7 +838,7 @@
         <v>6.894403999264183</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="I19">
         <v>8</v>
       </c>
@@ -863,7 +863,7 @@
         <v>-0.14139917435128274</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>2</v>
       </c>
@@ -871,7 +871,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>3</v>
       </c>
@@ -888,7 +888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -913,7 +913,7 @@
         <v>-7.0721770801551234</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -938,15 +938,15 @@
         <v>5279.3676480204977</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B27" s="2"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>2</v>
       </c>
@@ -954,7 +954,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -974,7 +974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <f>A4</f>
         <v>4</v>
@@ -1000,7 +1000,7 @@
         <v>3.9956796242903643</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <f>A5</f>
         <v>5</v>
@@ -1026,7 +1026,7 @@
         <v>5.0087557528437276</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <f>A6</f>
         <v>6</v>
@@ -1052,7 +1052,7 @@
         <v>5.9955646228659099</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <f>A7</f>
         <v>7</v>
@@ -1078,7 +1078,7 @@
         <v>6.894403999264183</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
         <f>A8</f>
         <v>0</v>
@@ -1114,16 +1114,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBC94E3C-D284-4D19-92AB-A16814BB168E}">
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -1131,7 +1131,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>5</v>
       </c>
@@ -1165,13 +1165,13 @@
         <v>558</v>
       </c>
       <c r="E3" s="1">
-        <v>445</v>
+        <v>485</v>
       </c>
       <c r="F3" s="1">
         <v>421</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>10</v>
       </c>
@@ -1185,13 +1185,13 @@
         <v>377</v>
       </c>
       <c r="E4" s="1">
-        <v>317</v>
+        <v>336</v>
       </c>
       <c r="F4" s="1">
         <v>298</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>15</v>
       </c>
@@ -1205,13 +1205,13 @@
         <v>290</v>
       </c>
       <c r="E5" s="1">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="F5" s="1">
         <v>232</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>20</v>
       </c>
@@ -1225,13 +1225,13 @@
         <v>239</v>
       </c>
       <c r="E6" s="1">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="F6" s="1">
         <v>193</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>25</v>
       </c>
@@ -1245,13 +1245,13 @@
         <v>204</v>
       </c>
       <c r="E7" s="1">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="F7" s="1">
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>30</v>
       </c>
@@ -1265,13 +1265,13 @@
         <v>180</v>
       </c>
       <c r="E8" s="1">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="F8" s="1">
         <v>155</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>35</v>
       </c>
@@ -1285,13 +1285,13 @@
         <v>170</v>
       </c>
       <c r="E9" s="1">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="F9" s="1">
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>0</v>
       </c>
@@ -1314,7 +1314,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>5</v>
       </c>
@@ -1332,7 +1332,7 @@
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>2.2471910112359553E-3</v>
+        <v>2.0618556701030928E-3</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
@@ -1354,7 +1354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>10</v>
       </c>
@@ -1372,7 +1372,7 @@
       </c>
       <c r="E15">
         <f t="shared" si="1"/>
-        <v>3.1545741324921135E-3</v>
+        <v>2.976190476190476E-3</v>
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
@@ -1395,14 +1395,14 @@
       </c>
       <c r="O15">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P15">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1420,7 +1420,7 @@
       </c>
       <c r="E16">
         <f t="shared" si="1"/>
-        <v>4.0650406504065045E-3</v>
+        <v>3.8610038610038611E-3</v>
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
@@ -1450,7 +1450,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>20</v>
       </c>
@@ -1468,7 +1468,7 @@
       </c>
       <c r="E17">
         <f t="shared" si="1"/>
-        <v>5.0000000000000001E-3</v>
+        <v>4.6511627906976744E-3</v>
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
@@ -1491,14 +1491,14 @@
       </c>
       <c r="O17">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P17">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>25</v>
       </c>
@@ -1516,7 +1516,7 @@
       </c>
       <c r="E18">
         <f t="shared" si="1"/>
-        <v>5.7803468208092483E-3</v>
+        <v>5.4054054054054057E-3</v>
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
@@ -1546,7 +1546,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>30</v>
       </c>
@@ -1564,7 +1564,7 @@
       </c>
       <c r="E19">
         <f t="shared" si="1"/>
-        <v>6.6666666666666671E-3</v>
+        <v>6.0606060606060606E-3</v>
       </c>
       <c r="F19">
         <f t="shared" si="1"/>
@@ -1587,14 +1587,14 @@
       </c>
       <c r="O19">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P19">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>35</v>
       </c>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E20">
         <f t="shared" si="1"/>
-        <v>7.462686567164179E-3</v>
+        <v>6.6666666666666671E-3</v>
       </c>
       <c r="F20">
         <f t="shared" si="1"/>
@@ -1642,7 +1642,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="J21">
         <v>35</v>
       </c>
@@ -1660,14 +1660,14 @@
       </c>
       <c r="O21">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P21">
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="L23">
         <f>ABS(L15-$J15)+ABS(L16-$J16)+ABS(L17-$J17)+ABS(L18-$J18)+ABS(L19-$J19)+ABS(L20-$J20)+ABS(L21-$J21)</f>
         <v>1</v>
@@ -1682,14 +1682,14 @@
       </c>
       <c r="O23">
         <f>ABS(O15-$J15)+ABS(O16-$J16)+ABS(O17-$J17)+ABS(O18-$J18)+ABS(O19-$J19)+ABS(O20-$J20)+ABS(O21-$J21)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P23">
         <f>ABS(P15-$J15)+ABS(P16-$J16)+ABS(P17-$J17)+ABS(P18-$J18)+ABS(P19-$J19)+ABS(P20-$J20)+ABS(P21-$J21)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>2</v>
       </c>
@@ -1697,7 +1697,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>3</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -1732,14 +1732,14 @@
       </c>
       <c r="E26">
         <f t="shared" si="3"/>
-        <v>-8.1733882321741866</v>
+        <v>-9.273311963961703</v>
       </c>
       <c r="F26">
         <f t="shared" si="3"/>
         <v>-10.970771331654497</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E27">
         <f t="shared" si="4"/>
-        <v>5736.8750184437049</v>
+        <v>6467.6289861336109</v>
       </c>
       <c r="F27">
         <f t="shared" si="4"/>
         <v>6222.3754020320584</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>2</v>
       </c>
@@ -1777,7 +1777,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -1797,7 +1797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <f t="shared" ref="A33:A39" si="5">A3</f>
         <v>5</v>
@@ -1816,14 +1816,14 @@
       </c>
       <c r="E33">
         <f t="shared" si="6"/>
-        <v>4.7184657418566101</v>
+        <v>4.062005533220999</v>
       </c>
       <c r="F33">
         <f t="shared" si="6"/>
         <v>3.8092177468064499</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <f t="shared" si="5"/>
         <v>10</v>
@@ -1842,14 +1842,14 @@
       </c>
       <c r="E34">
         <f t="shared" si="7"/>
-        <v>9.9240093023485407</v>
+        <v>9.9755838281026143</v>
       </c>
       <c r="F34">
         <f t="shared" si="7"/>
         <v>9.9096830375805993</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <f t="shared" si="5"/>
         <v>15</v>
@@ -1868,14 +1868,14 @@
       </c>
       <c r="E35">
         <f t="shared" si="7"/>
-        <v>15.147241924101035</v>
+        <v>15.698228523040655</v>
       </c>
       <c r="F35">
         <f t="shared" si="7"/>
         <v>15.849812297794031</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <f t="shared" si="5"/>
         <v>20</v>
@@ -1894,14 +1894,14 @@
       </c>
       <c r="E36">
         <f t="shared" si="7"/>
-        <v>20.510986860044337</v>
+        <v>20.808683320380673</v>
       </c>
       <c r="F36">
         <f t="shared" si="7"/>
         <v>21.26951572550643</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <f t="shared" si="5"/>
         <v>25</v>
@@ -1920,14 +1920,14 @@
       </c>
       <c r="E37">
         <f t="shared" si="7"/>
-        <v>24.987739042066881</v>
+        <v>25.686844717841602</v>
       </c>
       <c r="F37">
         <f t="shared" si="7"/>
         <v>26.513417837213325</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <f t="shared" si="5"/>
         <v>30</v>
@@ -1946,14 +1946,14 @@
       </c>
       <c r="E38">
         <f t="shared" si="7"/>
-        <v>30.072445224117178</v>
+        <v>29.924439467151089</v>
       </c>
       <c r="F38">
         <f t="shared" si="7"/>
         <v>29.173586100810397</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <f t="shared" si="5"/>
         <v>35</v>
@@ -1972,7 +1972,7 @@
       </c>
       <c r="E39">
         <f t="shared" si="7"/>
-        <v>34.639111905465398</v>
+        <v>33.84421461026237</v>
       </c>
       <c r="F39">
         <f t="shared" si="7"/>
@@ -1989,23 +1989,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{558F13F8-FE73-45A7-88B3-F428177E8C39}">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2013,7 +2013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>5</v>
       </c>
@@ -2024,7 +2024,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>10</v>
       </c>
@@ -2035,7 +2035,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>15</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>25</v>
       </c>
@@ -2057,7 +2057,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>35</v>
       </c>
@@ -2068,7 +2068,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>45</v>
       </c>
@@ -2079,7 +2079,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>55</v>
       </c>
@@ -2090,7 +2090,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>0</v>
       </c>
@@ -2098,7 +2098,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>5</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>10</v>
       </c>
@@ -2127,7 +2127,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>25</v>
       </c>
@@ -2161,7 +2161,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>35</v>
       </c>
@@ -2178,7 +2178,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>45</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>55</v>
       </c>
@@ -2212,17 +2212,17 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>-14.800848533965095</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -2248,17 +2248,17 @@
         <v>13820.124770452703</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -2266,7 +2266,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
         <f>A3</f>
         <v>5</v>
@@ -2280,12 +2280,12 @@
         <v>8.7829821323364463</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>10</v>
       </c>
       <c r="B33">
-        <f t="shared" ref="B33:C38" si="3">B$26/B4+B$25</f>
+        <f t="shared" ref="B33:C34" si="3">B$26/B4+B$25</f>
         <v>9.5239917667561471</v>
       </c>
       <c r="C33">
@@ -2293,7 +2293,7 @@
         <v>11.274858580096609</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <f>A5</f>
         <v>15</v>
@@ -2307,7 +2307,7 @@
         <v>14.603672254232148</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <f>A6</f>
         <v>25</v>
@@ -2321,7 +2321,7 @@
         <v>24.685222238756914</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <f>A7</f>
         <v>35</v>
@@ -2335,7 +2335,7 @@
         <v>36.384798764007883</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <f>A8</f>
         <v>45</v>
@@ -2349,7 +2349,7 @@
         <v>46.896137048413046</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <f>A9</f>
         <v>55</v>
